--- a/base_despesas/2026/despesas_202601.xlsx
+++ b/base_despesas/2026/despesas_202601.xlsx
@@ -697,7 +697,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4945,7 @@
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -5535,7 +5535,7 @@
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -6479,7 +6479,7 @@
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -6715,7 +6715,7 @@
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -6833,7 +6833,7 @@
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -7069,7 +7069,7 @@
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -7187,7 +7187,7 @@
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7305,7 @@
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -7895,7 +7895,7 @@
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8131,7 @@
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8249,7 @@
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -8367,7 +8367,7 @@
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8603,7 @@
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -8957,7 +8957,7 @@
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -9547,7 +9547,7 @@
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -9665,7 +9665,7 @@
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -9783,7 +9783,7 @@
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -10019,7 +10019,7 @@
       <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -10137,7 +10137,7 @@
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -10373,7 +10373,7 @@
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10491,7 @@
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -10609,7 +10609,7 @@
       <c r="AE86" t="inlineStr"/>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -10727,7 +10727,7 @@
       <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -10845,7 +10845,7 @@
       <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -10963,7 +10963,7 @@
       <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       <c r="AE90" t="inlineStr"/>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -11199,7 +11199,7 @@
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -11317,7 +11317,7 @@
       <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       <c r="AE96" t="inlineStr"/>
       <c r="AF96" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -11907,7 +11907,7 @@
       <c r="AE97" t="inlineStr"/>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -12025,7 +12025,7 @@
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -12143,7 +12143,7 @@
       <c r="AE99" t="inlineStr"/>
       <c r="AF99" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -12261,7 +12261,7 @@
       <c r="AE100" t="inlineStr"/>
       <c r="AF100" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -12379,7 +12379,7 @@
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -12497,7 +12497,7 @@
       <c r="AE102" t="inlineStr"/>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -12615,7 +12615,7 @@
       <c r="AE103" t="inlineStr"/>
       <c r="AF103" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -12733,7 +12733,7 @@
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -12851,7 +12851,7 @@
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -13087,7 +13087,7 @@
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -13205,7 +13205,7 @@
       <c r="AE108" t="inlineStr"/>
       <c r="AF108" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -13323,7 +13323,7 @@
       <c r="AE109" t="inlineStr"/>
       <c r="AF109" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       <c r="AE110" t="inlineStr"/>
       <c r="AF110" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -13559,7 +13559,7 @@
       <c r="AE111" t="inlineStr"/>
       <c r="AF111" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -13677,7 +13677,7 @@
       <c r="AE112" t="inlineStr"/>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -13795,7 +13795,7 @@
       <c r="AE113" t="inlineStr"/>
       <c r="AF113" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       <c r="AE114" t="inlineStr"/>
       <c r="AF114" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -14031,7 +14031,7 @@
       <c r="AE115" t="inlineStr"/>
       <c r="AF115" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       <c r="AE116" t="inlineStr"/>
       <c r="AF116" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -14267,7 +14267,7 @@
       <c r="AE117" t="inlineStr"/>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       <c r="AE118" t="inlineStr"/>
       <c r="AF118" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -14503,7 +14503,7 @@
       <c r="AE119" t="inlineStr"/>
       <c r="AF119" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -14621,7 +14621,7 @@
       <c r="AE120" t="inlineStr"/>
       <c r="AF120" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -14739,7 +14739,7 @@
       <c r="AE121" t="inlineStr"/>
       <c r="AF121" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       <c r="AE122" t="inlineStr"/>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -14975,7 +14975,7 @@
       <c r="AE123" t="inlineStr"/>
       <c r="AF123" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -15093,7 +15093,7 @@
       <c r="AE124" t="inlineStr"/>
       <c r="AF124" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -15211,7 +15211,7 @@
       <c r="AE125" t="inlineStr"/>
       <c r="AF125" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -15329,7 +15329,7 @@
       <c r="AE126" t="inlineStr"/>
       <c r="AF126" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       <c r="AE127" t="inlineStr"/>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -15565,7 +15565,7 @@
       <c r="AE128" t="inlineStr"/>
       <c r="AF128" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -15683,7 +15683,7 @@
       <c r="AE129" t="inlineStr"/>
       <c r="AF129" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -15801,7 +15801,7 @@
       <c r="AE130" t="inlineStr"/>
       <c r="AF130" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -15919,7 +15919,7 @@
       <c r="AE131" t="inlineStr"/>
       <c r="AF131" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -16037,7 +16037,7 @@
       <c r="AE132" t="inlineStr"/>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -16155,7 +16155,7 @@
       <c r="AE133" t="inlineStr"/>
       <c r="AF133" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -16273,7 +16273,7 @@
       <c r="AE134" t="inlineStr"/>
       <c r="AF134" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -16391,7 +16391,7 @@
       <c r="AE135" t="inlineStr"/>
       <c r="AF135" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -16509,7 +16509,7 @@
       <c r="AE136" t="inlineStr"/>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -16627,7 +16627,7 @@
       <c r="AE137" t="inlineStr"/>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -16745,7 +16745,7 @@
       <c r="AE138" t="inlineStr"/>
       <c r="AF138" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -16863,7 +16863,7 @@
       <c r="AE139" t="inlineStr"/>
       <c r="AF139" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -16981,7 +16981,7 @@
       <c r="AE140" t="inlineStr"/>
       <c r="AF140" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -17099,7 +17099,7 @@
       <c r="AE141" t="inlineStr"/>
       <c r="AF141" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       <c r="AE142" t="inlineStr"/>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -17335,7 +17335,7 @@
       <c r="AE143" t="inlineStr"/>
       <c r="AF143" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -17453,7 +17453,7 @@
       <c r="AE144" t="inlineStr"/>
       <c r="AF144" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>
@@ -17571,7 +17571,7 @@
       <c r="AE145" t="inlineStr"/>
       <c r="AF145" t="inlineStr">
         <is>
-          <t>28/01/2026 16:16:21</t>
+          <t>28/01/2026 21:50:58</t>
         </is>
       </c>
     </row>

--- a/base_despesas/2026/despesas_202601.xlsx
+++ b/base_despesas/2026/despesas_202601.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF145"/>
+  <dimension ref="A1:AF146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,7 +697,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>44905200</t>
+          <t>33909200</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2174,11 +2174,11 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Aquisição de Material Permanente</t>
+          <t>Despesas de Exercícios Anteriores</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2196,16 +2196,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>17023.38</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>10008.92</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>7014.46</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -2263,11 +2263,11 @@
         <v>4001</v>
       </c>
       <c r="G16" t="n">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>44905200</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>ADM - CIEE</t>
+          <t>ADM</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2292,11 +2292,11 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Aquisição de Material Permanente</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1800000</v>
+        <v>300000</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1800000</v>
+        <v>300000</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2314,25 +2314,25 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1800000</v>
+        <v>300000</v>
       </c>
       <c r="U16" t="n">
-        <v>1781472.96</v>
+        <v>17023.38</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>10008.92</v>
       </c>
       <c r="W16" t="n">
-        <v>1781472.96</v>
+        <v>7014.46</v>
       </c>
       <c r="X16" t="n">
-        <v>1781472.96</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>1781472.96</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -2381,11 +2381,11 @@
         <v>4001</v>
       </c>
       <c r="G17" t="n">
-        <v>3002</v>
+        <v>2106</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>44905100</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2400,21 +2400,21 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>SESANA</t>
+          <t>ADM - CIEE</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segurança Alimentar</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Obras e Instalações</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1000</v>
+        <v>1800000</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1000</v>
+        <v>1800000</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2432,25 +2432,25 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1000</v>
+        <v>1800000</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1781472.96</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1781472.96</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1781472.96</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1781472.96</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -2493,17 +2493,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F18" t="n">
         <v>4001</v>
       </c>
       <c r="G18" t="n">
-        <v>2171</v>
+        <v>3002</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>33904000</t>
+          <t>44905100</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2518,21 +2518,21 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>SESANA</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Segurança Alimentar</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Serv. de Tec. da Inf. e Com - PJ</t>
+          <t>Obras e Instalações</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6766333</v>
+        <v>1000</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2541,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6766333</v>
+        <v>1000</v>
       </c>
       <c r="R18" t="n">
-        <v>1075689</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>5690644</v>
+        <v>1000</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -2614,14 +2614,14 @@
         <v>126</v>
       </c>
       <c r="F19" t="n">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="G19" t="n">
-        <v>1220</v>
+        <v>2171</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>44904000</t>
+          <t>33904000</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1000</v>
+        <v>6766333</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2659,16 +2659,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1000</v>
+        <v>6766333</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1075689</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1000</v>
+        <v>5690644</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2703,7 +2703,7 @@
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -2735,11 +2735,11 @@
         <v>4002</v>
       </c>
       <c r="G20" t="n">
-        <v>2818</v>
+        <v>1220</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>44904000</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2764,11 +2764,11 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Serv. de Tec. da Inf. e Com - PJ</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>25698</v>
+        <v>1000</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2777,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>25698</v>
+        <v>1000</v>
       </c>
       <c r="R20" t="n">
-        <v>21804</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3894</v>
+        <v>1000</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2821,7 +2821,7 @@
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>33904000</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2882,11 +2882,11 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Serv. de Tec. da Inf. e Com - PJ</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>200000</v>
+        <v>25698</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2895,16 +2895,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>200000</v>
+        <v>25698</v>
       </c>
       <c r="R21" t="n">
-        <v>169694</v>
+        <v>21804</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>30306</v>
+        <v>3894</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>44905200</t>
+          <t>33904000</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3000,11 +3000,11 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Aquisição de Material Permanente</t>
+          <t>Serv. de Tec. da Inf. e Com - PJ</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>45698</v>
+        <v>200000</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -3013,16 +3013,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>45698</v>
+        <v>200000</v>
       </c>
       <c r="R22" t="n">
-        <v>24854</v>
+        <v>169694</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>20844</v>
+        <v>30306</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -3057,7 +3057,7 @@
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -3083,17 +3083,17 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>243</v>
+        <v>126</v>
       </c>
       <c r="F23" t="n">
-        <v>4019</v>
+        <v>4002</v>
       </c>
       <c r="G23" t="n">
-        <v>2157</v>
+        <v>2818</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>31901100</t>
+          <t>44905200</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3108,21 +3108,21 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Conselho Tutelar</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Vencimentos e Vantagens Fixas - Pessoa Civil</t>
+          <t>Aquisição de Material Permanente</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>22000000</v>
+        <v>45698</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3131,16 +3131,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>22000000</v>
+        <v>45698</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>24854</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>22000000</v>
+        <v>20844</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -3175,7 +3175,7 @@
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>31909400</t>
+          <t>31901100</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3236,11 +3236,11 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Indenizações e Restituições Trabalhistas</t>
+          <t>Vencimentos e Vantagens Fixas - Pessoa Civil</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>50000</v>
+        <v>22000000</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50000</v>
+        <v>22000000</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>50000</v>
+        <v>22000000</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>31909400</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3354,11 +3354,11 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Indenizações e Restituições Trabalhistas</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>463151</v>
+        <v>50000</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3367,16 +3367,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>463151</v>
+        <v>50000</v>
       </c>
       <c r="R25" t="n">
-        <v>2308</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>460843</v>
+        <v>50000</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>33903300</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3472,11 +3472,11 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Passagens e despesas com locomoção</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>70000</v>
+        <v>463151</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3485,34 +3485,34 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>70000</v>
+        <v>463151</v>
       </c>
       <c r="R26" t="n">
-        <v>349</v>
+        <v>2308</v>
       </c>
       <c r="S26" t="n">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>70000</v>
+        <v>460843</v>
       </c>
       <c r="U26" t="n">
-        <v>40000</v>
+        <v>26530.2</v>
       </c>
       <c r="V26" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>20000</v>
+        <v>26530.2</v>
       </c>
       <c r="X26" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3529,7 +3529,7 @@
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>33903600</t>
+          <t>33903300</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3590,11 +3590,11 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Contratação PF</t>
+          <t>Passagens e despesas com locomoção</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1841736</v>
+        <v>70000</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3603,34 +3603,34 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1841736</v>
+        <v>70000</v>
       </c>
       <c r="R27" t="n">
-        <v>9180</v>
+        <v>349</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="T27" t="n">
-        <v>1832556</v>
+        <v>70000</v>
       </c>
       <c r="U27" t="n">
-        <v>1595868.42</v>
+        <v>40000</v>
       </c>
       <c r="V27" t="n">
-        <v>199219.43</v>
+        <v>20000</v>
       </c>
       <c r="W27" t="n">
-        <v>1396648.99</v>
+        <v>20000</v>
       </c>
       <c r="X27" t="n">
-        <v>848666.63</v>
+        <v>20000</v>
       </c>
       <c r="Y27" t="n">
-        <v>61227.07</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>787439.5600000001</v>
+        <v>20000</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>33903700</t>
+          <t>33903600</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3708,11 +3708,11 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Locação de Mão de Obra</t>
+          <t>Contratação PF</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>7240232</v>
+        <v>1841736</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3721,34 +3721,34 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7240232</v>
+        <v>1841736</v>
       </c>
       <c r="R28" t="n">
-        <v>36087</v>
+        <v>9180</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>7204145</v>
+        <v>1832556</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1595868.42</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>199219.43</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1396648.99</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>848666.63</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>61227.07</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>787439.5600000001</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3765,7 +3765,7 @@
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903700</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3826,11 +3826,11 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Locação de Mão de Obra</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>18370086</v>
+        <v>7240232</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3839,34 +3839,34 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>18370086</v>
+        <v>7240232</v>
       </c>
       <c r="R29" t="n">
-        <v>91561</v>
+        <v>36087</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>18278525</v>
+        <v>7204145</v>
       </c>
       <c r="U29" t="n">
-        <v>1100411.14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>2810.98</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1097600.16</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>253354.39</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6572.65</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>246781.74</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -3924,12 +3924,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Recursos destinados ao pagamento de concessionárias</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>860517</v>
+        <v>18370086</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3957,34 +3957,34 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>860517</v>
+        <v>18370086</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>91561</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>860517</v>
+        <v>18278525</v>
       </c>
       <c r="U30" t="n">
-        <v>230000</v>
+        <v>1100411.14</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>2810.98</v>
       </c>
       <c r="W30" t="n">
-        <v>230000</v>
+        <v>1097600.16</v>
       </c>
       <c r="X30" t="n">
-        <v>230000</v>
+        <v>253354.39</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>6572.65</v>
       </c>
       <c r="Z30" t="n">
-        <v>230000</v>
+        <v>246781.74</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -4001,7 +4001,7 @@
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -4037,17 +4037,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>33904000</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Recursos destinados ao pagamento de concessionárias</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4062,11 +4062,11 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Serv. de Tec. da Inf. e Com - PJ</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>510000</v>
+        <v>860517</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -4075,34 +4075,34 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>510000</v>
+        <v>860517</v>
       </c>
       <c r="R31" t="n">
-        <v>2542</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>507458</v>
+        <v>860517</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>33904600</t>
+          <t>33904000</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4180,11 +4180,11 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Auxílio - Alimentação</t>
+          <t>Serv. de Tec. da Inf. e Com - PJ</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4418000</v>
+        <v>510000</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -4193,16 +4193,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>4418000</v>
+        <v>510000</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>2542</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>4418000</v>
+        <v>507458</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -4237,7 +4237,7 @@
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>33904700</t>
+          <t>33904600</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4298,11 +4298,11 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Obrigações Tributárias e Contributivas</t>
+          <t>Auxílio - Alimentação</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3000000</v>
+        <v>4418000</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -4311,34 +4311,34 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>3000000</v>
+        <v>4418000</v>
       </c>
       <c r="R33" t="n">
-        <v>14953</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2985047</v>
+        <v>4418000</v>
       </c>
       <c r="U33" t="n">
-        <v>53127.56</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>53127.56</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>36597.26</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>36597.26</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -4355,7 +4355,7 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>33904900</t>
+          <t>33904700</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4416,11 +4416,11 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Auxílio - Transporte</t>
+          <t>Obrigações Tributárias e Contributivas</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1000</v>
+        <v>3000000</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -4429,34 +4429,34 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1000</v>
+        <v>3000000</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>14953</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1000</v>
+        <v>2985047</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>53127.56</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>53127.56</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>36597.26</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>36597.26</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -4473,7 +4473,7 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -4499,17 +4499,17 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>422</v>
+        <v>243</v>
       </c>
       <c r="F35" t="n">
-        <v>4002</v>
+        <v>4019</v>
       </c>
       <c r="G35" t="n">
-        <v>2180</v>
+        <v>2157</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33904900</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4524,17 +4524,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Conselho Tutelar</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Auxílio - Transporte</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -4591,7 +4591,7 @@
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -4623,11 +4623,11 @@
         <v>4002</v>
       </c>
       <c r="G36" t="n">
-        <v>3660</v>
+        <v>2180</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>44803500</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4642,17 +4642,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Cooperação Técnica Internacional</t>
+          <t>CPI</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Cooperação Técnica Internacional</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Consultoria - Exterior</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -4709,7 +4709,7 @@
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -4738,14 +4738,14 @@
         <v>422</v>
       </c>
       <c r="F37" t="n">
-        <v>4010</v>
+        <v>4002</v>
       </c>
       <c r="G37" t="n">
-        <v>4426</v>
+        <v>3660</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>44803500</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -4760,21 +4760,21 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>SESANA</t>
+          <t>Cooperação Técnica Internacional</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segurança Alimentar</t>
+          <t>Cooperação Técnica Internacional</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Consultoria - Exterior</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4783,16 +4783,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="R37" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4827,7 +4827,7 @@
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -4863,17 +4863,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>9005</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Recursos destinados ao Orçamento Cidadão</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4888,29 +4888,29 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="O38" t="n">
-        <v>964724</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>964724</v>
+        <v>2000</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>964724</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -4945,7 +4945,7 @@
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -4977,21 +4977,21 @@
         <v>4010</v>
       </c>
       <c r="G39" t="n">
-        <v>4470</v>
+        <v>4426</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>9005</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Recursos destinados ao Orçamento Cidadão</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5006,29 +5006,29 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>964724</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>100000</v>
+        <v>964724</v>
       </c>
       <c r="R39" t="n">
-        <v>22671</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>77329</v>
+        <v>964724</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -5063,7 +5063,7 @@
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>33903700</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5124,11 +5124,11 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Locação de Mão de Obra</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>821969</v>
+        <v>100000</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -5137,34 +5137,34 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>821969</v>
+        <v>100000</v>
       </c>
       <c r="R40" t="n">
-        <v>186346</v>
+        <v>22671</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>635623</v>
+        <v>77329</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>6558</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>6558</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>10494</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>3936</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>6558</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
@@ -5181,7 +5181,7 @@
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903700</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Locação de Mão de Obra</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>21072104</v>
+        <v>821969</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -5255,34 +5255,34 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>21072104</v>
+        <v>821969</v>
       </c>
       <c r="R41" t="n">
-        <v>4777180</v>
+        <v>186346</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>16294924</v>
+        <v>635623</v>
       </c>
       <c r="U41" t="n">
-        <v>1087620.9</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1087620.9</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>450875.94</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>450875.94</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -5299,7 +5299,7 @@
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -5340,12 +5340,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Recursos destinados ao pagamento de concessionárias</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5364,7 +5364,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>316616</v>
+        <v>21072104</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -5373,34 +5373,34 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>316616</v>
+        <v>21072104</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>4777180</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>316616</v>
+        <v>16294924</v>
       </c>
       <c r="U42" t="n">
-        <v>316616</v>
+        <v>1087620.9</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>316616</v>
+        <v>1087620.9</v>
       </c>
       <c r="X42" t="n">
-        <v>316616</v>
+        <v>450875.94</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>316616</v>
+        <v>450875.94</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
@@ -5417,7 +5417,7 @@
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -5453,17 +5453,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>44905200</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Recursos destinados ao pagamento de concessionárias</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5478,11 +5478,11 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Aquisição de Material Permanente</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>28666</v>
+        <v>316616</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>28666</v>
+        <v>316616</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -5500,25 +5500,25 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>28666</v>
+        <v>316616</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>316616</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>316616</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>316616</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>316616</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
@@ -5535,7 +5535,7 @@
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -5567,11 +5567,11 @@
         <v>4010</v>
       </c>
       <c r="G44" t="n">
-        <v>7001</v>
+        <v>4470</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>44903900</t>
+          <t>44905200</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -5596,11 +5596,11 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Material Permanente</t>
+          <t>Aquisição de Material Permanente</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>1000</v>
+        <v>28666</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1000</v>
+        <v>28666</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1000</v>
+        <v>28666</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -5653,7 +5653,7 @@
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -5682,14 +5682,14 @@
         <v>422</v>
       </c>
       <c r="F45" t="n">
-        <v>4018</v>
+        <v>4010</v>
       </c>
       <c r="G45" t="n">
-        <v>2431</v>
+        <v>7001</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>44903900</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -5704,21 +5704,21 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>CPPSR</t>
+          <t>SESANA</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>População em Situação de Rua</t>
+          <t>Segurança Alimentar</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Material Permanente</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>10590662</v>
+        <v>1000</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -5727,16 +5727,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>10590662</v>
+        <v>1000</v>
       </c>
       <c r="R45" t="n">
-        <v>1565979</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>9024683</v>
+        <v>1000</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -5771,7 +5771,7 @@
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>33903700</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -5832,11 +5832,11 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Locação de Mão de Obra</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>293305</v>
+        <v>10590662</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -5845,34 +5845,34 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>293305</v>
+        <v>10590662</v>
       </c>
       <c r="R46" t="n">
-        <v>43369</v>
+        <v>1565979</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>249936</v>
+        <v>9024683</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>5342064.92</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>5342064.92</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>3606658.21</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2404922.99</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>1201735.22</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
@@ -5889,7 +5889,7 @@
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903700</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -5950,11 +5950,11 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Locação de Mão de Obra</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>101693</v>
+        <v>293305</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -5963,16 +5963,16 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>101693</v>
+        <v>293305</v>
       </c>
       <c r="R47" t="n">
-        <v>15037</v>
+        <v>43369</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>86656</v>
+        <v>249936</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -6007,7 +6007,7 @@
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -6048,12 +6048,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Recursos destinados ao pagamento de concessionárias</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>48307</v>
+        <v>101693</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -6081,34 +6081,34 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>48307</v>
+        <v>101693</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>15037</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>48307</v>
+        <v>86656</v>
       </c>
       <c r="U48" t="n">
-        <v>48307</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>48307</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>48307</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>48307</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -6125,7 +6125,7 @@
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -6157,21 +6157,21 @@
         <v>4018</v>
       </c>
       <c r="G49" t="n">
-        <v>4321</v>
+        <v>2431</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>33903100</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Recursos destinados ao pagamento de concessionárias</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6186,11 +6186,11 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Premiações Culturais, Artísticas e outras</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>20000</v>
+        <v>48307</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -6199,34 +6199,34 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>20000</v>
+        <v>48307</v>
       </c>
       <c r="R49" t="n">
-        <v>3646</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>16354</v>
+        <v>48307</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>48307</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>48307</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>48307</v>
       </c>
       <c r="Y49" t="n">
         <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>48307</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -6243,7 +6243,7 @@
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903100</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6304,11 +6304,11 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Premiações Culturais, Artísticas e outras</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>22965724</v>
+        <v>20000</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -6317,34 +6317,34 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>22965724</v>
+        <v>20000</v>
       </c>
       <c r="R50" t="n">
-        <v>4186869</v>
+        <v>3646</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>18778855</v>
+        <v>16354</v>
       </c>
       <c r="U50" t="n">
-        <v>5686750</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>5686750</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>10991500</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>5495750</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>5495750</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
@@ -6361,7 +6361,7 @@
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -6393,11 +6393,11 @@
         <v>4018</v>
       </c>
       <c r="G51" t="n">
-        <v>9026</v>
+        <v>4321</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6412,21 +6412,21 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Emenda</t>
+          <t>CPPSR</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Emenda</t>
+          <t>População em Situação de Rua</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>100000</v>
+        <v>22965724</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -6435,34 +6435,34 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>100000</v>
+        <v>22965724</v>
       </c>
       <c r="R51" t="n">
-        <v>100000</v>
+        <v>4186869</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>18778855</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>5686750</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>5686750</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>10991500</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>5495750</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>5495750</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
@@ -6479,7 +6479,7 @@
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
         <v>4018</v>
       </c>
       <c r="G52" t="n">
-        <v>9040</v>
+        <v>9026</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -6553,10 +6553,10 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="R52" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -6597,7 +6597,7 @@
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
         <v>4018</v>
       </c>
       <c r="G53" t="n">
-        <v>9041</v>
+        <v>9040</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -6671,10 +6671,10 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="R53" t="n">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
         <v>4018</v>
       </c>
       <c r="G54" t="n">
-        <v>9042</v>
+        <v>9041</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -6789,10 +6789,10 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="R54" t="n">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -6833,7 +6833,7 @@
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -6865,7 +6865,7 @@
         <v>4018</v>
       </c>
       <c r="G55" t="n">
-        <v>9043</v>
+        <v>9042</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="R55" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -6951,7 +6951,7 @@
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -6983,7 +6983,7 @@
         <v>4018</v>
       </c>
       <c r="G56" t="n">
-        <v>9045</v>
+        <v>9043</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
         <v>4018</v>
       </c>
       <c r="G57" t="n">
-        <v>9046</v>
+        <v>9045</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>350000</v>
+        <v>100000</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -7143,10 +7143,10 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>350000</v>
+        <v>100000</v>
       </c>
       <c r="R57" t="n">
-        <v>350000</v>
+        <v>100000</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
@@ -7187,7 +7187,7 @@
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
         <v>4018</v>
       </c>
       <c r="G58" t="n">
-        <v>9051</v>
+        <v>9046</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>70000</v>
+        <v>350000</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -7261,10 +7261,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>70000</v>
+        <v>350000</v>
       </c>
       <c r="R58" t="n">
-        <v>70000</v>
+        <v>350000</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -7305,7 +7305,7 @@
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -7337,11 +7337,11 @@
         <v>4018</v>
       </c>
       <c r="G59" t="n">
-        <v>9055</v>
+        <v>9051</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>44905100</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -7366,11 +7366,11 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Obras e Instalações</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -7379,10 +7379,10 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="R59" t="n">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -7423,7 +7423,7 @@
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -7455,11 +7455,11 @@
         <v>4018</v>
       </c>
       <c r="G60" t="n">
-        <v>9097</v>
+        <v>9055</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>44905100</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -7484,11 +7484,11 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Obras e Instalações</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2300000</v>
+        <v>200000</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -7497,10 +7497,10 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>2300000</v>
+        <v>200000</v>
       </c>
       <c r="R60" t="n">
-        <v>2300000</v>
+        <v>200000</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -7541,7 +7541,7 @@
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -7570,14 +7570,14 @@
         <v>422</v>
       </c>
       <c r="F61" t="n">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="G61" t="n">
-        <v>4328</v>
+        <v>9097</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -7592,21 +7592,21 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>CPCA</t>
+          <t>Emenda</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Criança e Adolescente</t>
+          <t>Emenda</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>1226000</v>
+        <v>2300000</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -7615,34 +7615,34 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>1226000</v>
+        <v>2300000</v>
       </c>
       <c r="R61" t="n">
-        <v>598343</v>
+        <v>2300000</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>627657</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>627657</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>627657</v>
+        <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>627657</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
         <v>0</v>
       </c>
       <c r="Z61" t="n">
-        <v>627657</v>
+        <v>0</v>
       </c>
       <c r="AA61" t="n">
         <v>0</v>
@@ -7659,7 +7659,7 @@
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -7720,11 +7720,11 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>49592</v>
+        <v>1226000</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -7733,34 +7733,34 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>49592</v>
+        <v>1226000</v>
       </c>
       <c r="R62" t="n">
-        <v>24203</v>
+        <v>598343</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>25389</v>
+        <v>627657</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>627657</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>627657</v>
       </c>
       <c r="X62" t="n">
-        <v>0</v>
+        <v>627657</v>
       </c>
       <c r="Y62" t="n">
         <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>0</v>
+        <v>627657</v>
       </c>
       <c r="AA62" t="n">
         <v>0</v>
@@ -7777,7 +7777,7 @@
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -7838,11 +7838,11 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1696190</v>
+        <v>49592</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -7851,25 +7851,25 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>1696190</v>
+        <v>49592</v>
       </c>
       <c r="R63" t="n">
-        <v>827817</v>
+        <v>24203</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>868373</v>
+        <v>25389</v>
       </c>
       <c r="U63" t="n">
-        <v>868373</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>868373</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
@@ -7895,7 +7895,7 @@
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>33904800</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -7956,11 +7956,11 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Outros Auxílios Financeiros - Pessoas Físicas</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>1800000</v>
+        <v>1696190</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -7969,40 +7969,40 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>1800000</v>
+        <v>1696190</v>
       </c>
       <c r="R64" t="n">
-        <v>878481</v>
+        <v>827817</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>921519</v>
+        <v>868373</v>
       </c>
       <c r="U64" t="n">
-        <v>921519</v>
+        <v>868373</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>921519</v>
+        <v>868373</v>
       </c>
       <c r="X64" t="n">
-        <v>122450</v>
+        <v>0</v>
       </c>
       <c r="Y64" t="n">
         <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>122450</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>122450</v>
+        <v>0</v>
       </c>
       <c r="AB64" t="n">
-        <v>122450</v>
+        <v>0</v>
       </c>
       <c r="AC64" t="n">
         <v>0</v>
@@ -8013,7 +8013,7 @@
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -8042,14 +8042,14 @@
         <v>422</v>
       </c>
       <c r="F65" t="n">
-        <v>4023</v>
+        <v>4019</v>
       </c>
       <c r="G65" t="n">
-        <v>4320</v>
+        <v>4328</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33904800</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -8064,21 +8064,21 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>CPPI</t>
+          <t>CPCA</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Idoso</t>
+          <t>Criança e Adolescente</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Outros Auxílios Financeiros - Pessoas Físicas</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3000</v>
+        <v>1800000</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -8087,40 +8087,40 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>3000</v>
+        <v>1800000</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>878481</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>3000</v>
+        <v>921519</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>921519</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>921519</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>244900</v>
       </c>
       <c r="Y65" t="n">
         <v>0</v>
       </c>
       <c r="Z65" t="n">
-        <v>0</v>
+        <v>244900</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>122450</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>122450</v>
       </c>
       <c r="AC65" t="n">
         <v>0</v>
@@ -8131,7 +8131,7 @@
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -8163,11 +8163,11 @@
         <v>4023</v>
       </c>
       <c r="G66" t="n">
-        <v>4330</v>
+        <v>4320</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -8192,11 +8192,11 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>1671844</v>
+        <v>3000</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -8205,34 +8205,34 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>1671844</v>
+        <v>3000</v>
       </c>
       <c r="R66" t="n">
-        <v>478393</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>1193451</v>
+        <v>3000</v>
       </c>
       <c r="U66" t="n">
-        <v>1193451</v>
+        <v>0</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>1193451</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>1193451</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
         <v>0</v>
       </c>
       <c r="Z66" t="n">
-        <v>1193451</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="n">
         <v>0</v>
@@ -8249,7 +8249,7 @@
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -8310,11 +8310,11 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>105000</v>
+        <v>1671844</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -8323,34 +8323,34 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>105000</v>
+        <v>1671844</v>
       </c>
       <c r="R67" t="n">
-        <v>30045</v>
+        <v>478393</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>74955</v>
+        <v>1193451</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1193451</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>1193451</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>1193451</v>
       </c>
       <c r="Y67" t="n">
         <v>0</v>
       </c>
       <c r="Z67" t="n">
-        <v>0</v>
+        <v>1193451</v>
       </c>
       <c r="AA67" t="n">
         <v>0</v>
@@ -8367,7 +8367,7 @@
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>33903700</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -8428,11 +8428,11 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Locação de Mão de Obra</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>863000</v>
+        <v>105000</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -8441,16 +8441,16 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>863000</v>
+        <v>105000</v>
       </c>
       <c r="R68" t="n">
-        <v>246945</v>
+        <v>30045</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>616055</v>
+        <v>74955</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -8485,7 +8485,7 @@
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903700</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -8546,11 +8546,11 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Locação de Mão de Obra</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>1314953</v>
+        <v>863000</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -8559,25 +8559,25 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>1314953</v>
+        <v>863000</v>
       </c>
       <c r="R69" t="n">
-        <v>376270</v>
+        <v>246945</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>938683</v>
+        <v>616055</v>
       </c>
       <c r="U69" t="n">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="X69" t="n">
         <v>0</v>
@@ -8603,7 +8603,7 @@
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -8644,12 +8644,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Recursos destinados ao pagamento de concessionárias</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>21270</v>
+        <v>1314953</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -8677,34 +8677,34 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>21270</v>
+        <v>1314953</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>376270</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>21270</v>
+        <v>938683</v>
       </c>
       <c r="U70" t="n">
-        <v>21270</v>
+        <v>55000</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>21270</v>
+        <v>55000</v>
       </c>
       <c r="X70" t="n">
-        <v>21270</v>
+        <v>0</v>
       </c>
       <c r="Y70" t="n">
         <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>21270</v>
+        <v>0</v>
       </c>
       <c r="AA70" t="n">
         <v>0</v>
@@ -8721,7 +8721,7 @@
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -8753,40 +8753,40 @@
         <v>4023</v>
       </c>
       <c r="G71" t="n">
-        <v>9028</v>
+        <v>4330</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Recursos destinados ao pagamento de concessionárias</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Emenda</t>
+          <t>CPPI</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Emenda</t>
+          <t>Idoso</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>100000</v>
+        <v>21270</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -8795,34 +8795,34 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>100000</v>
+        <v>21270</v>
       </c>
       <c r="R71" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>21270</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>21270</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>21270</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>21270</v>
       </c>
       <c r="Y71" t="n">
         <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>21270</v>
       </c>
       <c r="AA71" t="n">
         <v>0</v>
@@ -8839,7 +8839,7 @@
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
         <v>4023</v>
       </c>
       <c r="G72" t="n">
-        <v>9038</v>
+        <v>9028</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8989,7 @@
         <v>4023</v>
       </c>
       <c r="G73" t="n">
-        <v>9050</v>
+        <v>9038</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -9031,10 +9031,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="R73" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
@@ -9075,7 +9075,7 @@
       <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -9104,10 +9104,10 @@
         <v>422</v>
       </c>
       <c r="F74" t="n">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="G74" t="n">
-        <v>2051</v>
+        <v>9050</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -9126,12 +9126,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>CPIPTD</t>
+          <t>Emenda</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Imigrantes</t>
+          <t>Emenda</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2107032</v>
+        <v>75000</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -9149,34 +9149,34 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>2107032</v>
+        <v>75000</v>
       </c>
       <c r="R74" t="n">
-        <v>268051</v>
+        <v>75000</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>1838981</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>679177.12</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>679177.12</v>
+        <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>679177.12</v>
+        <v>0</v>
       </c>
       <c r="Y74" t="n">
         <v>0</v>
       </c>
       <c r="Z74" t="n">
-        <v>679177.12</v>
+        <v>0</v>
       </c>
       <c r="AA74" t="n">
         <v>0</v>
@@ -9193,7 +9193,7 @@
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -9254,11 +9254,11 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>80000</v>
+        <v>2107032</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -9267,34 +9267,34 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>80000</v>
+        <v>2107032</v>
       </c>
       <c r="R75" t="n">
-        <v>10177</v>
+        <v>268051</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>69823</v>
+        <v>1838981</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>679177.12</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>679177.12</v>
       </c>
       <c r="X75" t="n">
-        <v>0</v>
+        <v>679177.12</v>
       </c>
       <c r="Y75" t="n">
         <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>0</v>
+        <v>679177.12</v>
       </c>
       <c r="AA75" t="n">
         <v>0</v>
@@ -9311,7 +9311,7 @@
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>33903700</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -9372,11 +9372,11 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Locação de Mão de Obra</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>150000</v>
+        <v>80000</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -9385,16 +9385,16 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>150000</v>
+        <v>80000</v>
       </c>
       <c r="R76" t="n">
-        <v>19083</v>
+        <v>10177</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>130917</v>
+        <v>69823</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -9429,7 +9429,7 @@
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903700</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -9490,11 +9490,11 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Locação de Mão de Obra</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>450000</v>
+        <v>150000</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -9503,25 +9503,25 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>450000</v>
+        <v>150000</v>
       </c>
       <c r="R77" t="n">
-        <v>57248</v>
+        <v>19083</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>392752</v>
+        <v>130917</v>
       </c>
       <c r="U77" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -9547,7 +9547,7 @@
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -9579,11 +9579,11 @@
         <v>4024</v>
       </c>
       <c r="G78" t="n">
-        <v>2142</v>
+        <v>2051</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -9598,48 +9598,48 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>EDH</t>
+          <t>CPIPTD</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Educação em Direitos Humanos</t>
+          <t>Imigrantes</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N78" t="n">
+        <v>450000</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>450000</v>
+      </c>
+      <c r="R78" t="n">
+        <v>57248</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>392752</v>
+      </c>
+      <c r="U78" t="n">
         <v>50000</v>
       </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
         <v>50000</v>
-      </c>
-      <c r="R78" t="n">
-        <v>49471</v>
-      </c>
-      <c r="S78" t="n">
-        <v>49471</v>
-      </c>
-      <c r="T78" t="n">
-        <v>50000</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
       </c>
       <c r="X78" t="n">
         <v>0</v>
@@ -9665,7 +9665,7 @@
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>33903100</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -9726,11 +9726,11 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Premiações Culturais, Artísticas e outras</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -9739,16 +9739,16 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="R79" t="n">
-        <v>98942</v>
+        <v>49471</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>49471</v>
       </c>
       <c r="T79" t="n">
-        <v>1058</v>
+        <v>50000</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
@@ -9783,7 +9783,7 @@
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>33903600</t>
+          <t>33903100</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -9844,11 +9844,11 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Contratação PF</t>
+          <t>Premiações Culturais, Artísticas e outras</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -9857,16 +9857,16 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="R80" t="n">
-        <v>49471</v>
+        <v>98942</v>
       </c>
       <c r="S80" t="n">
-        <v>49471</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>50000</v>
+        <v>1058</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
       <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903600</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -9962,11 +9962,11 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Contratação PF</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>1261000</v>
+        <v>50000</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -9975,16 +9975,16 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>1261000</v>
+        <v>50000</v>
       </c>
       <c r="R81" t="n">
-        <v>1247659</v>
+        <v>49471</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>49471</v>
       </c>
       <c r="T81" t="n">
-        <v>13341</v>
+        <v>50000</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
@@ -10019,7 +10019,7 @@
       <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -10051,11 +10051,11 @@
         <v>4024</v>
       </c>
       <c r="G82" t="n">
-        <v>3406</v>
+        <v>2142</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>44903900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -10070,21 +10070,21 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Selo DH</t>
+          <t>EDH</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Selo DH</t>
+          <t>Educação em Direitos Humanos</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Material Permanente</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>1000</v>
+        <v>1261000</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -10093,16 +10093,16 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>1000</v>
+        <v>1261000</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>1247659</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>1000</v>
+        <v>13341</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
@@ -10137,7 +10137,7 @@
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -10169,11 +10169,11 @@
         <v>4024</v>
       </c>
       <c r="G83" t="n">
-        <v>4314</v>
+        <v>3406</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>44903900</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -10188,21 +10188,21 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Desaparecidas</t>
+          <t>Selo DH</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Desaparecidos</t>
+          <t>Selo DH</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Material Permanente</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>550500</v>
+        <v>1000</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -10211,16 +10211,16 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>550500</v>
+        <v>1000</v>
       </c>
       <c r="R83" t="n">
-        <v>550500</v>
+        <v>0</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
@@ -10255,7 +10255,7 @@
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -10287,11 +10287,11 @@
         <v>4024</v>
       </c>
       <c r="G84" t="n">
-        <v>4317</v>
+        <v>4314</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -10306,21 +10306,21 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>DMV</t>
+          <t>Desaparecidas</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Memória e Verdade</t>
+          <t>Desaparecidos</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>1000</v>
+        <v>550500</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -10329,16 +10329,16 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1000</v>
+        <v>550500</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>550500</v>
       </c>
       <c r="S84" t="n">
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
@@ -10373,7 +10373,7 @@
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -10405,11 +10405,11 @@
         <v>4024</v>
       </c>
       <c r="G85" t="n">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -10424,21 +10424,21 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>CPJ</t>
+          <t>DMV</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Memória e Verdade</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>12675633</v>
+        <v>1000</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>12675633</v>
+        <v>1000</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -10456,25 +10456,25 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>12675633</v>
+        <v>1000</v>
       </c>
       <c r="U85" t="n">
-        <v>2861229.41</v>
+        <v>0</v>
       </c>
       <c r="V85" t="n">
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>2861229.41</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>2459898.9</v>
+        <v>0</v>
       </c>
       <c r="Y85" t="n">
         <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>2459898.9</v>
+        <v>0</v>
       </c>
       <c r="AA85" t="n">
         <v>0</v>
@@ -10491,7 +10491,7 @@
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -10552,11 +10552,11 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>50000</v>
+        <v>12675633</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>50000</v>
+        <v>12675633</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -10574,25 +10574,25 @@
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>50000</v>
+        <v>12675633</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>2861229.41</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>2861229.41</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
+        <v>2459898.9</v>
       </c>
       <c r="Y86" t="n">
         <v>0</v>
       </c>
       <c r="Z86" t="n">
-        <v>0</v>
+        <v>2459898.9</v>
       </c>
       <c r="AA86" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
       <c r="AE86" t="inlineStr"/>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -10645,7 +10645,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -10670,11 +10670,11 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>378632</v>
+        <v>50000</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>378632</v>
+        <v>50000</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>378632</v>
+        <v>50000</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
       <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -10759,11 +10759,11 @@
         <v>4024</v>
       </c>
       <c r="G88" t="n">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>33804100</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -10778,21 +10778,21 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>CPLGBTI</t>
+          <t>CPJ</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>LGBTI</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Taxa Rainbow</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>10598</v>
+        <v>378632</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -10801,16 +10801,16 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>10598</v>
+        <v>378632</v>
       </c>
       <c r="R88" t="n">
-        <v>2225</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>8373</v>
+        <v>378632</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -10845,7 +10845,7 @@
       <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -10881,17 +10881,17 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33804100</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0000</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Código Genérico</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -10906,11 +10906,11 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Taxa Rainbow</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4000</v>
+        <v>10598</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -10919,16 +10919,16 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>4000</v>
+        <v>10598</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>2225</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>4000</v>
+        <v>8373</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
@@ -10963,7 +10963,7 @@
       <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -10999,17 +10999,17 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>33904800</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Código Genérico</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11024,11 +11024,11 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Outros Auxílios Financeiros - Pessoas Físicas</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>12421782</v>
+        <v>4000</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -11037,16 +11037,16 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>12421782</v>
+        <v>4000</v>
       </c>
       <c r="R90" t="n">
-        <v>2607835</v>
+        <v>0</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>9813947</v>
+        <v>4000</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
       <c r="AE90" t="inlineStr"/>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -11113,11 +11113,11 @@
         <v>4024</v>
       </c>
       <c r="G91" t="n">
-        <v>4324</v>
+        <v>4319</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33904800</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -11132,21 +11132,21 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>CPIPTD</t>
+          <t>CPLGBTI</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Imigrantes</t>
+          <t>LGBTI</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Outros Auxílios Financeiros - Pessoas Físicas</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>56000</v>
+        <v>12421782</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -11155,16 +11155,16 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>56000</v>
+        <v>12421782</v>
       </c>
       <c r="R91" t="n">
-        <v>56000</v>
+        <v>2607835</v>
       </c>
       <c r="S91" t="n">
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>9813947</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -11199,7 +11199,7 @@
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -11240,12 +11240,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>9005</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Recursos destinados ao Orçamento Cidadão</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11264,19 +11264,19 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
       <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -11349,7 +11349,7 @@
         <v>4024</v>
       </c>
       <c r="G93" t="n">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -11358,22 +11358,22 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>9005</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Recursos destinados ao Orçamento Cidadão</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>CPD</t>
+          <t>CPIPTD</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Drogas</t>
+          <t>Imigrantes</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -11382,16 +11382,16 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Q93" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -11400,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
@@ -11435,7 +11435,7 @@
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -11467,11 +11467,11 @@
         <v>4024</v>
       </c>
       <c r="G94" t="n">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -11486,21 +11486,21 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>CPLGBTI</t>
+          <t>CPD</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>LGBTI</t>
+          <t>Drogas</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>10052704</v>
+        <v>1000</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>10052704</v>
+        <v>1000</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -11518,25 +11518,25 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>10052704</v>
+        <v>1000</v>
       </c>
       <c r="U94" t="n">
-        <v>10052704</v>
+        <v>0</v>
       </c>
       <c r="V94" t="n">
         <v>0</v>
       </c>
       <c r="W94" t="n">
-        <v>10052704</v>
+        <v>0</v>
       </c>
       <c r="X94" t="n">
-        <v>10052704</v>
+        <v>0</v>
       </c>
       <c r="Y94" t="n">
         <v>0</v>
       </c>
       <c r="Z94" t="n">
-        <v>10052704</v>
+        <v>0</v>
       </c>
       <c r="AA94" t="n">
         <v>0</v>
@@ -11553,7 +11553,7 @@
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -11589,7 +11589,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -11614,11 +11614,11 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>100000</v>
+        <v>10052704</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -11627,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>100000</v>
+        <v>10052704</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -11636,25 +11636,25 @@
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>100000</v>
+        <v>10052704</v>
       </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>10052704</v>
       </c>
       <c r="V95" t="n">
         <v>0</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>10052704</v>
       </c>
       <c r="X95" t="n">
-        <v>0</v>
+        <v>10052704</v>
       </c>
       <c r="Y95" t="n">
         <v>0</v>
       </c>
       <c r="Z95" t="n">
-        <v>0</v>
+        <v>10052704</v>
       </c>
       <c r="AA95" t="n">
         <v>0</v>
@@ -11671,7 +11671,7 @@
       <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -11732,11 +11732,11 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>8429440</v>
+        <v>100000</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>8429440</v>
+        <v>100000</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -11754,16 +11754,16 @@
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>8429440</v>
+        <v>100000</v>
       </c>
       <c r="U96" t="n">
-        <v>6921400</v>
+        <v>0</v>
       </c>
       <c r="V96" t="n">
         <v>0</v>
       </c>
       <c r="W96" t="n">
-        <v>6921400</v>
+        <v>0</v>
       </c>
       <c r="X96" t="n">
         <v>0</v>
@@ -11789,7 +11789,7 @@
       <c r="AE96" t="inlineStr"/>
       <c r="AF96" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -11821,11 +11821,11 @@
         <v>4024</v>
       </c>
       <c r="G97" t="n">
-        <v>4332</v>
+        <v>4326</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -11840,21 +11840,21 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>ODH</t>
+          <t>CPLGBTI</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Ouvidoria</t>
+          <t>LGBTI</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>5238691</v>
+        <v>8429440</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>5238691</v>
+        <v>8429440</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -11872,25 +11872,25 @@
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>5238691</v>
+        <v>8429440</v>
       </c>
       <c r="U97" t="n">
-        <v>5238691</v>
+        <v>6926170.67</v>
       </c>
       <c r="V97" t="n">
         <v>0</v>
       </c>
       <c r="W97" t="n">
-        <v>5238691</v>
+        <v>6926170.67</v>
       </c>
       <c r="X97" t="n">
-        <v>7031140.2</v>
+        <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>1792449.2</v>
+        <v>0</v>
       </c>
       <c r="Z97" t="n">
-        <v>5238691</v>
+        <v>0</v>
       </c>
       <c r="AA97" t="n">
         <v>0</v>
@@ -11907,7 +11907,7 @@
       <c r="AE97" t="inlineStr"/>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -11943,7 +11943,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -11968,11 +11968,11 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>867556</v>
+        <v>5238691</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>867556</v>
+        <v>5238691</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -11990,25 +11990,25 @@
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>867556</v>
+        <v>5238691</v>
       </c>
       <c r="U98" t="n">
-        <v>240000</v>
+        <v>5238691</v>
       </c>
       <c r="V98" t="n">
         <v>0</v>
       </c>
       <c r="W98" t="n">
-        <v>240000</v>
+        <v>5238691</v>
       </c>
       <c r="X98" t="n">
-        <v>0</v>
+        <v>8823589.4</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>3584898.4</v>
       </c>
       <c r="Z98" t="n">
-        <v>0</v>
+        <v>5238691</v>
       </c>
       <c r="AA98" t="n">
         <v>0</v>
@@ -12025,7 +12025,7 @@
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -12057,11 +12057,11 @@
         <v>4024</v>
       </c>
       <c r="G99" t="n">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>33903700</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -12076,21 +12076,21 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>CPDDH</t>
+          <t>ODH</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Centro Público</t>
+          <t>Ouvidoria</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Locação de Mão de Obra</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>321493</v>
+        <v>867556</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>321493</v>
+        <v>867556</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
@@ -12108,16 +12108,16 @@
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>321493</v>
+        <v>867556</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="X99" t="n">
         <v>0</v>
@@ -12143,7 +12143,7 @@
       <c r="AE99" t="inlineStr"/>
       <c r="AF99" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -12179,7 +12179,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903700</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -12204,11 +12204,11 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Locação de Mão de Obra</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>237085</v>
+        <v>321493</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>237085</v>
+        <v>321493</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -12226,16 +12226,16 @@
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>237085</v>
+        <v>321493</v>
       </c>
       <c r="U100" t="n">
-        <v>13728.92</v>
+        <v>0</v>
       </c>
       <c r="V100" t="n">
         <v>0</v>
       </c>
       <c r="W100" t="n">
-        <v>13728.92</v>
+        <v>0</v>
       </c>
       <c r="X100" t="n">
         <v>0</v>
@@ -12261,7 +12261,7 @@
       <c r="AE100" t="inlineStr"/>
       <c r="AF100" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -12302,12 +12302,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Recursos destinados ao pagamento de concessionárias</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12326,7 +12326,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>45670</v>
+        <v>237085</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>45670</v>
+        <v>237085</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -12344,25 +12344,25 @@
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>45670</v>
+        <v>237085</v>
       </c>
       <c r="U101" t="n">
-        <v>45670</v>
+        <v>13728.92</v>
       </c>
       <c r="V101" t="n">
         <v>0</v>
       </c>
       <c r="W101" t="n">
-        <v>45670</v>
+        <v>13728.92</v>
       </c>
       <c r="X101" t="n">
-        <v>45670</v>
+        <v>0</v>
       </c>
       <c r="Y101" t="n">
         <v>0</v>
       </c>
       <c r="Z101" t="n">
-        <v>45670</v>
+        <v>0</v>
       </c>
       <c r="AA101" t="n">
         <v>0</v>
@@ -12379,7 +12379,7 @@
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -12411,40 +12411,40 @@
         <v>4024</v>
       </c>
       <c r="G102" t="n">
-        <v>4335</v>
+        <v>4333</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Recursos destinados ao pagamento de concessionárias</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Egressos</t>
+          <t>CPDDH</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Egressos</t>
+          <t>Centro Público</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>50000</v>
+        <v>45670</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>50000</v>
+        <v>45670</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -12462,25 +12462,25 @@
         <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>50000</v>
+        <v>45670</v>
       </c>
       <c r="U102" t="n">
-        <v>0</v>
+        <v>45670</v>
       </c>
       <c r="V102" t="n">
         <v>0</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>45670</v>
       </c>
       <c r="X102" t="n">
-        <v>0</v>
+        <v>45670</v>
       </c>
       <c r="Y102" t="n">
         <v>0</v>
       </c>
       <c r="Z102" t="n">
-        <v>0</v>
+        <v>45670</v>
       </c>
       <c r="AA102" t="n">
         <v>0</v>
@@ -12497,7 +12497,7 @@
       <c r="AE102" t="inlineStr"/>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -12526,10 +12526,10 @@
         <v>422</v>
       </c>
       <c r="F103" t="n">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="G103" t="n">
-        <v>2053</v>
+        <v>4335</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>CPM</t>
+          <t>Egressos</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Mulheres</t>
+          <t>Egressos</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>5149155</v>
+        <v>50000</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -12571,37 +12571,37 @@
         <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>5149155</v>
+        <v>50000</v>
       </c>
       <c r="R103" t="n">
-        <v>261863</v>
+        <v>0</v>
       </c>
       <c r="S103" t="n">
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>4887292</v>
+        <v>50000</v>
       </c>
       <c r="U103" t="n">
-        <v>4887292</v>
+        <v>0</v>
       </c>
       <c r="V103" t="n">
         <v>0</v>
       </c>
       <c r="W103" t="n">
-        <v>4887292</v>
+        <v>0</v>
       </c>
       <c r="X103" t="n">
-        <v>4887292</v>
+        <v>0</v>
       </c>
       <c r="Y103" t="n">
         <v>0</v>
       </c>
       <c r="Z103" t="n">
-        <v>4887292</v>
+        <v>0</v>
       </c>
       <c r="AA103" t="n">
-        <v>814548.67</v>
+        <v>0</v>
       </c>
       <c r="AB103" t="n">
         <v>0</v>
@@ -12615,7 +12615,7 @@
       <c r="AE103" t="inlineStr"/>
       <c r="AF103" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -12656,12 +12656,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0000</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Código Genérico</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -12680,7 +12680,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2000</v>
+        <v>5149155</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -12689,40 +12689,40 @@
         <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>2000</v>
+        <v>5149155</v>
       </c>
       <c r="R104" t="n">
-        <v>2000</v>
+        <v>261863</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>4887292</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>4887292</v>
       </c>
       <c r="V104" t="n">
         <v>0</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>4887292</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
+        <v>4887292</v>
       </c>
       <c r="Y104" t="n">
         <v>0</v>
       </c>
       <c r="Z104" t="n">
-        <v>0</v>
+        <v>4887292</v>
       </c>
       <c r="AA104" t="n">
-        <v>0</v>
+        <v>814548.67</v>
       </c>
       <c r="AB104" t="n">
-        <v>0</v>
+        <v>814548.67</v>
       </c>
       <c r="AC104" t="n">
         <v>0</v>
@@ -12733,7 +12733,7 @@
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -12769,17 +12769,17 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Código Genérico</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -12794,11 +12794,11 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>158832</v>
+        <v>2000</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
@@ -12807,16 +12807,16 @@
         <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>158832</v>
+        <v>2000</v>
       </c>
       <c r="R105" t="n">
-        <v>8077</v>
+        <v>2000</v>
       </c>
       <c r="S105" t="n">
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>150755</v>
+        <v>0</v>
       </c>
       <c r="U105" t="n">
         <v>0</v>
@@ -12851,7 +12851,7 @@
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -12887,7 +12887,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>33903700</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -12912,11 +12912,11 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Locação de Mão de Obra</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>547269</v>
+        <v>158832</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -12925,34 +12925,34 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>547269</v>
+        <v>158832</v>
       </c>
       <c r="R106" t="n">
-        <v>27832</v>
+        <v>8077</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>519437</v>
+        <v>150755</v>
       </c>
       <c r="U106" t="n">
-        <v>0</v>
+        <v>11808</v>
       </c>
       <c r="V106" t="n">
         <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
+        <v>11808</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>11808</v>
       </c>
       <c r="Y106" t="n">
         <v>0</v>
       </c>
       <c r="Z106" t="n">
-        <v>0</v>
+        <v>11808</v>
       </c>
       <c r="AA106" t="n">
         <v>0</v>
@@ -12969,7 +12969,7 @@
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -13005,7 +13005,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903700</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -13030,11 +13030,11 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Locação de Mão de Obra</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4953156</v>
+        <v>547269</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
@@ -13043,34 +13043,34 @@
         <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>4953156</v>
+        <v>547269</v>
       </c>
       <c r="R107" t="n">
-        <v>251895</v>
+        <v>27832</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>4701261</v>
+        <v>519437</v>
       </c>
       <c r="U107" t="n">
-        <v>139083</v>
+        <v>0</v>
       </c>
       <c r="V107" t="n">
-        <v>2664</v>
+        <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>136419</v>
+        <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>133775</v>
+        <v>0</v>
       </c>
       <c r="Y107" t="n">
         <v>0</v>
       </c>
       <c r="Z107" t="n">
-        <v>133775</v>
+        <v>0</v>
       </c>
       <c r="AA107" t="n">
         <v>0</v>
@@ -13087,7 +13087,7 @@
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -13128,12 +13128,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Recursos destinados ao pagamento de concessionárias</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13152,7 +13152,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>282533</v>
+        <v>4953156</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -13161,34 +13161,34 @@
         <v>0</v>
       </c>
       <c r="Q108" t="n">
-        <v>282533</v>
+        <v>4953156</v>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>251895</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>282533</v>
+        <v>4701261</v>
       </c>
       <c r="U108" t="n">
-        <v>282533</v>
+        <v>139083</v>
       </c>
       <c r="V108" t="n">
-        <v>0</v>
+        <v>2664</v>
       </c>
       <c r="W108" t="n">
-        <v>282533</v>
+        <v>136419</v>
       </c>
       <c r="X108" t="n">
-        <v>282533</v>
+        <v>136419</v>
       </c>
       <c r="Y108" t="n">
         <v>0</v>
       </c>
       <c r="Z108" t="n">
-        <v>282533</v>
+        <v>136419</v>
       </c>
       <c r="AA108" t="n">
         <v>0</v>
@@ -13205,7 +13205,7 @@
       <c r="AE108" t="inlineStr"/>
       <c r="AF108" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -13241,17 +13241,17 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>44905200</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Recursos destinados ao pagamento de concessionárias</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13266,11 +13266,11 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Aquisição de Material Permanente</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>10000</v>
+        <v>282533</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -13279,34 +13279,34 @@
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>10000</v>
+        <v>282533</v>
       </c>
       <c r="R109" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S109" t="n">
         <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>282533</v>
       </c>
       <c r="U109" t="n">
-        <v>0</v>
+        <v>282533</v>
       </c>
       <c r="V109" t="n">
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>282533</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>282533</v>
       </c>
       <c r="Y109" t="n">
         <v>0</v>
       </c>
       <c r="Z109" t="n">
-        <v>0</v>
+        <v>282533</v>
       </c>
       <c r="AA109" t="n">
         <v>0</v>
@@ -13323,7 +13323,7 @@
       <c r="AE109" t="inlineStr"/>
       <c r="AF109" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -13355,11 +13355,11 @@
         <v>4025</v>
       </c>
       <c r="G110" t="n">
-        <v>4329</v>
+        <v>2053</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>33904800</t>
+          <t>44905200</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -13384,11 +13384,11 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Outros Auxílios Financeiros - Pessoas Físicas</t>
+          <t>Aquisição de Material Permanente</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>10000000</v>
+        <v>10000</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -13397,40 +13397,40 @@
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>10000000</v>
+        <v>10000</v>
       </c>
       <c r="R110" t="n">
-        <v>1421600</v>
+        <v>10000</v>
       </c>
       <c r="S110" t="n">
         <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>8578400</v>
+        <v>0</v>
       </c>
       <c r="U110" t="n">
-        <v>8578400</v>
+        <v>0</v>
       </c>
       <c r="V110" t="n">
         <v>0</v>
       </c>
       <c r="W110" t="n">
-        <v>8578400</v>
+        <v>0</v>
       </c>
       <c r="X110" t="n">
-        <v>1559200</v>
+        <v>0</v>
       </c>
       <c r="Y110" t="n">
-        <v>779600</v>
+        <v>0</v>
       </c>
       <c r="Z110" t="n">
-        <v>779600</v>
+        <v>0</v>
       </c>
       <c r="AA110" t="n">
-        <v>779600</v>
+        <v>0</v>
       </c>
       <c r="AB110" t="n">
-        <v>779600</v>
+        <v>0</v>
       </c>
       <c r="AC110" t="n">
         <v>0</v>
@@ -13441,7 +13441,7 @@
       <c r="AE110" t="inlineStr"/>
       <c r="AF110" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -13473,11 +13473,11 @@
         <v>4025</v>
       </c>
       <c r="G111" t="n">
-        <v>6178</v>
+        <v>4329</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33904800</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -13502,11 +13502,11 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Outros Auxílios Financeiros - Pessoas Físicas</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>22426358</v>
+        <v>10000000</v>
       </c>
       <c r="O111" t="n">
         <v>0</v>
@@ -13515,40 +13515,40 @@
         <v>0</v>
       </c>
       <c r="Q111" t="n">
-        <v>22426358</v>
+        <v>10000000</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>1421600</v>
       </c>
       <c r="S111" t="n">
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>22426358</v>
+        <v>8578400</v>
       </c>
       <c r="U111" t="n">
-        <v>14754165.05</v>
+        <v>8578400</v>
       </c>
       <c r="V111" t="n">
-        <v>772617.28</v>
+        <v>0</v>
       </c>
       <c r="W111" t="n">
-        <v>13981547.77</v>
+        <v>8578400</v>
       </c>
       <c r="X111" t="n">
-        <v>12719947.27</v>
+        <v>2356400</v>
       </c>
       <c r="Y111" t="n">
-        <v>0</v>
+        <v>779600</v>
       </c>
       <c r="Z111" t="n">
-        <v>12719947.27</v>
+        <v>1576800</v>
       </c>
       <c r="AA111" t="n">
-        <v>0</v>
+        <v>779600</v>
       </c>
       <c r="AB111" t="n">
-        <v>0</v>
+        <v>779600</v>
       </c>
       <c r="AC111" t="n">
         <v>0</v>
@@ -13559,7 +13559,7 @@
       <c r="AE111" t="inlineStr"/>
       <c r="AF111" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -13595,7 +13595,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -13620,11 +13620,11 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>200000</v>
+        <v>22426358</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
@@ -13633,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="Q112" t="n">
-        <v>200000</v>
+        <v>22426358</v>
       </c>
       <c r="R112" t="n">
         <v>0</v>
@@ -13642,25 +13642,25 @@
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>200000</v>
+        <v>22426358</v>
       </c>
       <c r="U112" t="n">
-        <v>94229.82000000001</v>
+        <v>23851875.51</v>
       </c>
       <c r="V112" t="n">
-        <v>0</v>
+        <v>1425517.51</v>
       </c>
       <c r="W112" t="n">
-        <v>94229.82000000001</v>
+        <v>22426358</v>
       </c>
       <c r="X112" t="n">
-        <v>0</v>
+        <v>21344367.15</v>
       </c>
       <c r="Y112" t="n">
-        <v>0</v>
+        <v>179609.65</v>
       </c>
       <c r="Z112" t="n">
-        <v>0</v>
+        <v>21164757.5</v>
       </c>
       <c r="AA112" t="n">
         <v>0</v>
@@ -13677,7 +13677,7 @@
       <c r="AE112" t="inlineStr"/>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>33903600</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -13738,11 +13738,11 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Contratação PF</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O113" t="n">
         <v>0</v>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="Q113" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
@@ -13760,25 +13760,25 @@
         <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="U113" t="n">
-        <v>88531.96000000001</v>
+        <v>106229.82</v>
       </c>
       <c r="V113" t="n">
         <v>0</v>
       </c>
       <c r="W113" t="n">
-        <v>88531.96000000001</v>
+        <v>106229.82</v>
       </c>
       <c r="X113" t="n">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="Y113" t="n">
         <v>0</v>
       </c>
       <c r="Z113" t="n">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="AA113" t="n">
         <v>0</v>
@@ -13795,7 +13795,7 @@
       <c r="AE113" t="inlineStr"/>
       <c r="AF113" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -13831,7 +13831,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>33903700</t>
+          <t>33903600</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -13856,11 +13856,11 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Locação de Mão de Obra</t>
+          <t>Contratação PF</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2537927</v>
+        <v>250000</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="Q114" t="n">
-        <v>2537927</v>
+        <v>250000</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
@@ -13878,25 +13878,25 @@
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>2537927</v>
+        <v>250000</v>
       </c>
       <c r="U114" t="n">
-        <v>0</v>
+        <v>88531.96000000001</v>
       </c>
       <c r="V114" t="n">
         <v>0</v>
       </c>
       <c r="W114" t="n">
-        <v>0</v>
+        <v>88531.96000000001</v>
       </c>
       <c r="X114" t="n">
-        <v>0</v>
+        <v>88531.96000000001</v>
       </c>
       <c r="Y114" t="n">
         <v>0</v>
       </c>
       <c r="Z114" t="n">
-        <v>0</v>
+        <v>88531.96000000001</v>
       </c>
       <c r="AA114" t="n">
         <v>0</v>
@@ -13913,7 +13913,7 @@
       <c r="AE114" t="inlineStr"/>
       <c r="AF114" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903700</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -13974,11 +13974,11 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Locação de Mão de Obra</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>4806049</v>
+        <v>2537927</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -13987,7 +13987,7 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>4806049</v>
+        <v>2537927</v>
       </c>
       <c r="R115" t="n">
         <v>0</v>
@@ -13996,16 +13996,16 @@
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>4806049</v>
+        <v>2537927</v>
       </c>
       <c r="U115" t="n">
-        <v>988754.48</v>
+        <v>0</v>
       </c>
       <c r="V115" t="n">
         <v>0</v>
       </c>
       <c r="W115" t="n">
-        <v>988754.48</v>
+        <v>0</v>
       </c>
       <c r="X115" t="n">
         <v>0</v>
@@ -14031,7 +14031,7 @@
       <c r="AE115" t="inlineStr"/>
       <c r="AF115" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -14072,12 +14072,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Recursos destinados ao pagamento de concessionárias</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>139282</v>
+        <v>4806049</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
@@ -14105,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="Q116" t="n">
-        <v>139282</v>
+        <v>4806049</v>
       </c>
       <c r="R116" t="n">
         <v>0</v>
@@ -14114,25 +14114,25 @@
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>139282</v>
+        <v>4806049</v>
       </c>
       <c r="U116" t="n">
-        <v>80000</v>
+        <v>988754.48</v>
       </c>
       <c r="V116" t="n">
         <v>0</v>
       </c>
       <c r="W116" t="n">
-        <v>80000</v>
+        <v>988754.48</v>
       </c>
       <c r="X116" t="n">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="Y116" t="n">
         <v>0</v>
       </c>
       <c r="Z116" t="n">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="AA116" t="n">
         <v>0</v>
@@ -14149,7 +14149,7 @@
       <c r="AE116" t="inlineStr"/>
       <c r="AF116" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -14185,17 +14185,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>33904700</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Recursos destinados ao pagamento de concessionárias</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -14210,11 +14210,11 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Obrigações Tributárias e Contributivas</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>49000</v>
+        <v>139282</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -14223,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="Q117" t="n">
-        <v>49000</v>
+        <v>139282</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
@@ -14232,25 +14232,25 @@
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>49000</v>
+        <v>139282</v>
       </c>
       <c r="U117" t="n">
-        <v>19678.5</v>
+        <v>80000</v>
       </c>
       <c r="V117" t="n">
         <v>0</v>
       </c>
       <c r="W117" t="n">
-        <v>19678.5</v>
+        <v>80000</v>
       </c>
       <c r="X117" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="Y117" t="n">
         <v>0</v>
       </c>
       <c r="Z117" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="AA117" t="n">
         <v>0</v>
@@ -14267,7 +14267,7 @@
       <c r="AE117" t="inlineStr"/>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -14299,11 +14299,11 @@
         <v>4025</v>
       </c>
       <c r="G118" t="n">
-        <v>9027</v>
+        <v>6178</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33904700</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -14318,21 +14318,21 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Emenda</t>
+          <t>CPM</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Emenda</t>
+          <t>Mulheres</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Obrigações Tributárias e Contributivas</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>110000</v>
+        <v>49000</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -14341,34 +14341,34 @@
         <v>0</v>
       </c>
       <c r="Q118" t="n">
-        <v>110000</v>
+        <v>49000</v>
       </c>
       <c r="R118" t="n">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="U118" t="n">
-        <v>0</v>
+        <v>19678.5</v>
       </c>
       <c r="V118" t="n">
         <v>0</v>
       </c>
       <c r="W118" t="n">
-        <v>0</v>
+        <v>19678.5</v>
       </c>
       <c r="X118" t="n">
-        <v>0</v>
+        <v>19678.5</v>
       </c>
       <c r="Y118" t="n">
         <v>0</v>
       </c>
       <c r="Z118" t="n">
-        <v>0</v>
+        <v>19678.5</v>
       </c>
       <c r="AA118" t="n">
         <v>0</v>
@@ -14385,7 +14385,7 @@
       <c r="AE118" t="inlineStr"/>
       <c r="AF118" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -14417,7 +14417,7 @@
         <v>4025</v>
       </c>
       <c r="G119" t="n">
-        <v>9030</v>
+        <v>9027</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="O119" t="n">
         <v>0</v>
@@ -14459,10 +14459,10 @@
         <v>0</v>
       </c>
       <c r="Q119" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="R119" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="S119" t="n">
         <v>0</v>
@@ -14503,7 +14503,7 @@
       <c r="AE119" t="inlineStr"/>
       <c r="AF119" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -14535,7 +14535,7 @@
         <v>4025</v>
       </c>
       <c r="G120" t="n">
-        <v>9044</v>
+        <v>9030</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -14577,10 +14577,10 @@
         <v>0</v>
       </c>
       <c r="Q120" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="R120" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="S120" t="n">
         <v>0</v>
@@ -14621,7 +14621,7 @@
       <c r="AE120" t="inlineStr"/>
       <c r="AF120" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -14650,14 +14650,14 @@
         <v>422</v>
       </c>
       <c r="F121" t="n">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="G121" t="n">
-        <v>4327</v>
+        <v>9044</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -14672,21 +14672,21 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>CPIR</t>
+          <t>Emenda</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Igualdade Racial</t>
+          <t>Emenda</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>11949</v>
+        <v>75000</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
@@ -14695,16 +14695,16 @@
         <v>0</v>
       </c>
       <c r="Q121" t="n">
-        <v>11949</v>
+        <v>75000</v>
       </c>
       <c r="R121" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="S121" t="n">
         <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>11949</v>
+        <v>0</v>
       </c>
       <c r="U121" t="n">
         <v>0</v>
@@ -14739,7 +14739,7 @@
       <c r="AE121" t="inlineStr"/>
       <c r="AF121" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -14771,11 +14771,11 @@
         <v>4026</v>
       </c>
       <c r="G122" t="n">
-        <v>4334</v>
+        <v>4327</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -14800,11 +14800,11 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>6455492</v>
+        <v>11949</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -14813,34 +14813,34 @@
         <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>6455492</v>
+        <v>11949</v>
       </c>
       <c r="R122" t="n">
-        <v>2986219</v>
+        <v>0</v>
       </c>
       <c r="S122" t="n">
         <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>3469273</v>
+        <v>11949</v>
       </c>
       <c r="U122" t="n">
-        <v>3469273</v>
+        <v>0</v>
       </c>
       <c r="V122" t="n">
         <v>0</v>
       </c>
       <c r="W122" t="n">
-        <v>3469273</v>
+        <v>0</v>
       </c>
       <c r="X122" t="n">
-        <v>3469273</v>
+        <v>0</v>
       </c>
       <c r="Y122" t="n">
         <v>0</v>
       </c>
       <c r="Z122" t="n">
-        <v>3469273</v>
+        <v>0</v>
       </c>
       <c r="AA122" t="n">
         <v>0</v>
@@ -14857,7 +14857,7 @@
       <c r="AE122" t="inlineStr"/>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>33903100</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -14918,11 +14918,11 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Premiações Culturais, Artísticas e outras</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>10000</v>
+        <v>6455492</v>
       </c>
       <c r="O123" t="n">
         <v>0</v>
@@ -14931,34 +14931,34 @@
         <v>0</v>
       </c>
       <c r="Q123" t="n">
-        <v>10000</v>
+        <v>6455492</v>
       </c>
       <c r="R123" t="n">
-        <v>4626</v>
+        <v>2986219</v>
       </c>
       <c r="S123" t="n">
         <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>5374</v>
+        <v>3469273</v>
       </c>
       <c r="U123" t="n">
-        <v>0</v>
+        <v>3469273</v>
       </c>
       <c r="V123" t="n">
         <v>0</v>
       </c>
       <c r="W123" t="n">
-        <v>0</v>
+        <v>3469273</v>
       </c>
       <c r="X123" t="n">
-        <v>0</v>
+        <v>3469273</v>
       </c>
       <c r="Y123" t="n">
         <v>0</v>
       </c>
       <c r="Z123" t="n">
-        <v>0</v>
+        <v>3469273</v>
       </c>
       <c r="AA123" t="n">
         <v>0</v>
@@ -14975,7 +14975,7 @@
       <c r="AE123" t="inlineStr"/>
       <c r="AF123" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -15011,7 +15011,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>33903700</t>
+          <t>33903100</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Locação de Mão de Obra</t>
+          <t>Premiações Culturais, Artísticas e outras</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O124" t="n">
         <v>0</v>
@@ -15049,16 +15049,16 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="R124" t="n">
-        <v>69388</v>
+        <v>4626</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>80612</v>
+        <v>5374</v>
       </c>
       <c r="U124" t="n">
         <v>0</v>
@@ -15093,7 +15093,7 @@
       <c r="AE124" t="inlineStr"/>
       <c r="AF124" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903700</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -15154,11 +15154,11 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Locação de Mão de Obra</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>10925362</v>
+        <v>150000</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
@@ -15167,25 +15167,25 @@
         <v>0</v>
       </c>
       <c r="Q125" t="n">
-        <v>10925362</v>
+        <v>150000</v>
       </c>
       <c r="R125" t="n">
-        <v>5054381</v>
+        <v>69388</v>
       </c>
       <c r="S125" t="n">
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>5870981</v>
+        <v>80612</v>
       </c>
       <c r="U125" t="n">
-        <v>4870981</v>
+        <v>0</v>
       </c>
       <c r="V125" t="n">
         <v>0</v>
       </c>
       <c r="W125" t="n">
-        <v>4870981</v>
+        <v>0</v>
       </c>
       <c r="X125" t="n">
         <v>0</v>
@@ -15211,7 +15211,7 @@
       <c r="AE125" t="inlineStr"/>
       <c r="AF125" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -15252,12 +15252,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Recursos destinados ao pagamento de concessionárias</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -15276,7 +15276,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>1000</v>
+        <v>10925362</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
@@ -15285,25 +15285,25 @@
         <v>0</v>
       </c>
       <c r="Q126" t="n">
-        <v>1000</v>
+        <v>10925362</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>5054381</v>
       </c>
       <c r="S126" t="n">
         <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>1000</v>
+        <v>5870981</v>
       </c>
       <c r="U126" t="n">
-        <v>0</v>
+        <v>4890595.9</v>
       </c>
       <c r="V126" t="n">
         <v>0</v>
       </c>
       <c r="W126" t="n">
-        <v>0</v>
+        <v>4890595.9</v>
       </c>
       <c r="X126" t="n">
         <v>0</v>
@@ -15329,7 +15329,7 @@
       <c r="AE126" t="inlineStr"/>
       <c r="AF126" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -15361,40 +15361,40 @@
         <v>4026</v>
       </c>
       <c r="G127" t="n">
-        <v>9025</v>
+        <v>4334</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Recursos destinados ao pagamento de concessionárias</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Emenda</t>
+          <t>CPIR</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Emenda</t>
+          <t>Igualdade Racial</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>75000</v>
+        <v>1000</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -15403,16 +15403,16 @@
         <v>0</v>
       </c>
       <c r="Q127" t="n">
-        <v>75000</v>
+        <v>1000</v>
       </c>
       <c r="R127" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="S127" t="n">
         <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U127" t="n">
         <v>0</v>
@@ -15447,7 +15447,7 @@
       <c r="AE127" t="inlineStr"/>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -15473,17 +15473,17 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F128" t="n">
         <v>4026</v>
       </c>
       <c r="G128" t="n">
-        <v>4322</v>
+        <v>9025</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>33903600</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -15498,21 +15498,21 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>COPIND</t>
+          <t>Emenda</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Povos Originários</t>
+          <t>Emenda</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Contratação PF</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>46881</v>
+        <v>75000</v>
       </c>
       <c r="O128" t="n">
         <v>0</v>
@@ -15521,16 +15521,16 @@
         <v>0</v>
       </c>
       <c r="Q128" t="n">
-        <v>46881</v>
+        <v>75000</v>
       </c>
       <c r="R128" t="n">
-        <v>39738</v>
+        <v>75000</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>7143</v>
+        <v>0</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
@@ -15565,7 +15565,7 @@
       <c r="AE128" t="inlineStr"/>
       <c r="AF128" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -15601,7 +15601,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903600</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -15626,11 +15626,11 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Contratação PF</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>220966</v>
+        <v>46881</v>
       </c>
       <c r="O129" t="n">
         <v>0</v>
@@ -15639,25 +15639,25 @@
         <v>0</v>
       </c>
       <c r="Q129" t="n">
-        <v>220966</v>
+        <v>46881</v>
       </c>
       <c r="R129" t="n">
-        <v>187297</v>
+        <v>39738</v>
       </c>
       <c r="S129" t="n">
         <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>33669</v>
+        <v>7143</v>
       </c>
       <c r="U129" t="n">
-        <v>33669</v>
+        <v>0</v>
       </c>
       <c r="V129" t="n">
         <v>0</v>
       </c>
       <c r="W129" t="n">
-        <v>33669</v>
+        <v>0</v>
       </c>
       <c r="X129" t="n">
         <v>0</v>
@@ -15683,7 +15683,7 @@
       <c r="AE129" t="inlineStr"/>
       <c r="AF129" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -15715,11 +15715,11 @@
         <v>4026</v>
       </c>
       <c r="G130" t="n">
-        <v>9234</v>
+        <v>4322</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -15734,21 +15734,21 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Emenda</t>
+          <t>COPIND</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Emenda</t>
+          <t>Povos Originários</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>100000</v>
+        <v>220966</v>
       </c>
       <c r="O130" t="n">
         <v>0</v>
@@ -15757,25 +15757,25 @@
         <v>0</v>
       </c>
       <c r="Q130" t="n">
-        <v>100000</v>
+        <v>220966</v>
       </c>
       <c r="R130" t="n">
-        <v>100000</v>
+        <v>187297</v>
       </c>
       <c r="S130" t="n">
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>0</v>
+        <v>33669</v>
       </c>
       <c r="U130" t="n">
-        <v>0</v>
+        <v>33669</v>
       </c>
       <c r="V130" t="n">
         <v>0</v>
       </c>
       <c r="W130" t="n">
-        <v>0</v>
+        <v>33669</v>
       </c>
       <c r="X130" t="n">
         <v>0</v>
@@ -15801,14 +15801,14 @@
       <c r="AE130" t="inlineStr"/>
       <c r="AF130" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>FUMCAF</t>
+          <t>SMDHC</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -15827,17 +15827,17 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F131" t="n">
-        <v>4010</v>
+        <v>4026</v>
       </c>
       <c r="G131" t="n">
-        <v>4426</v>
+        <v>9234</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -15852,21 +15852,21 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>SESANA</t>
+          <t>Emenda</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segurança Alimentar</t>
+          <t>Emenda</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>589773</v>
+        <v>100000</v>
       </c>
       <c r="O131" t="n">
         <v>0</v>
@@ -15875,10 +15875,10 @@
         <v>0</v>
       </c>
       <c r="Q131" t="n">
-        <v>589773</v>
+        <v>100000</v>
       </c>
       <c r="R131" t="n">
-        <v>589773</v>
+        <v>100000</v>
       </c>
       <c r="S131" t="n">
         <v>0</v>
@@ -15919,43 +15919,43 @@
       <c r="AE131" t="inlineStr"/>
       <c r="AF131" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FAASP</t>
+          <t>FUMCAF</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>244</v>
+        <v>422</v>
       </c>
       <c r="F132" t="n">
         <v>4010</v>
       </c>
       <c r="G132" t="n">
-        <v>4302</v>
+        <v>4426</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>FAASP</t>
+          <t>SESANA</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -15980,11 +15980,11 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>40835555</v>
+        <v>589773</v>
       </c>
       <c r="O132" t="n">
         <v>0</v>
@@ -15993,37 +15993,37 @@
         <v>0</v>
       </c>
       <c r="Q132" t="n">
-        <v>40835555</v>
+        <v>589773</v>
       </c>
       <c r="R132" t="n">
-        <v>0</v>
+        <v>589773</v>
       </c>
       <c r="S132" t="n">
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>40835555</v>
+        <v>0</v>
       </c>
       <c r="U132" t="n">
-        <v>38820625.08</v>
+        <v>0</v>
       </c>
       <c r="V132" t="n">
         <v>0</v>
       </c>
       <c r="W132" t="n">
-        <v>38820625.08</v>
+        <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>38820625.08</v>
+        <v>0</v>
       </c>
       <c r="Y132" t="n">
         <v>0</v>
       </c>
       <c r="Z132" t="n">
-        <v>38820625.08</v>
+        <v>0</v>
       </c>
       <c r="AA132" t="n">
-        <v>3235052.09</v>
+        <v>0</v>
       </c>
       <c r="AB132" t="n">
         <v>0</v>
@@ -16037,7 +16037,7 @@
       <c r="AE132" t="inlineStr"/>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>44905100</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -16098,11 +16098,11 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Obras e Instalações</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>16896102</v>
+        <v>40835555</v>
       </c>
       <c r="O133" t="n">
         <v>0</v>
@@ -16111,37 +16111,37 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>16896102</v>
+        <v>40835555</v>
       </c>
       <c r="R133" t="n">
-        <v>16295665</v>
+        <v>0</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>600437</v>
+        <v>40835555</v>
       </c>
       <c r="U133" t="n">
-        <v>0</v>
+        <v>38820625.08</v>
       </c>
       <c r="V133" t="n">
         <v>0</v>
       </c>
       <c r="W133" t="n">
-        <v>0</v>
+        <v>38820625.08</v>
       </c>
       <c r="X133" t="n">
-        <v>0</v>
+        <v>38820625.08</v>
       </c>
       <c r="Y133" t="n">
         <v>0</v>
       </c>
       <c r="Z133" t="n">
-        <v>0</v>
+        <v>38820625.08</v>
       </c>
       <c r="AA133" t="n">
-        <v>0</v>
+        <v>3235052.09</v>
       </c>
       <c r="AB133" t="n">
         <v>0</v>
@@ -16155,7 +16155,7 @@
       <c r="AE133" t="inlineStr"/>
       <c r="AF133" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -16177,17 +16177,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>08</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="F134" t="n">
-        <v>4001</v>
+        <v>4010</v>
       </c>
       <c r="G134" t="n">
-        <v>3002</v>
+        <v>4302</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>SESANA</t>
+          <t>FAASP</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -16220,7 +16220,7 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>1000</v>
+        <v>16896102</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
@@ -16229,16 +16229,16 @@
         <v>0</v>
       </c>
       <c r="Q134" t="n">
-        <v>1000</v>
+        <v>16896102</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>16295665</v>
       </c>
       <c r="S134" t="n">
         <v>0</v>
       </c>
       <c r="T134" t="n">
-        <v>1000</v>
+        <v>600437</v>
       </c>
       <c r="U134" t="n">
         <v>0</v>
@@ -16273,7 +16273,7 @@
       <c r="AE134" t="inlineStr"/>
       <c r="AF134" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -16299,17 +16299,17 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>422</v>
+        <v>122</v>
       </c>
       <c r="F135" t="n">
-        <v>4010</v>
+        <v>4001</v>
       </c>
       <c r="G135" t="n">
-        <v>4426</v>
+        <v>3002</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>44905100</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -16334,11 +16334,11 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Obras e Instalações</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>171813039</v>
+        <v>1000</v>
       </c>
       <c r="O135" t="n">
         <v>0</v>
@@ -16347,37 +16347,37 @@
         <v>0</v>
       </c>
       <c r="Q135" t="n">
-        <v>171813039</v>
+        <v>1000</v>
       </c>
       <c r="R135" t="n">
-        <v>5735947</v>
+        <v>0</v>
       </c>
       <c r="S135" t="n">
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>166077092</v>
+        <v>1000</v>
       </c>
       <c r="U135" t="n">
-        <v>79524394.59</v>
+        <v>0</v>
       </c>
       <c r="V135" t="n">
-        <v>10817709.26</v>
+        <v>0</v>
       </c>
       <c r="W135" t="n">
-        <v>68706685.33</v>
+        <v>0</v>
       </c>
       <c r="X135" t="n">
-        <v>56784990.24</v>
+        <v>0</v>
       </c>
       <c r="Y135" t="n">
-        <v>1319332.44</v>
+        <v>0</v>
       </c>
       <c r="Z135" t="n">
-        <v>55465657.8</v>
+        <v>0</v>
       </c>
       <c r="AA135" t="n">
-        <v>438463.7</v>
+        <v>0</v>
       </c>
       <c r="AB135" t="n">
         <v>0</v>
@@ -16391,7 +16391,7 @@
       <c r="AE135" t="inlineStr"/>
       <c r="AF135" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -16427,17 +16427,17 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>33503900</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>PMSP-SMDU/CIDADE SOLIDÁRIA</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -16452,11 +16452,11 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Contratação PJ sem Fins Lucrativos</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>2000</v>
+        <v>171813039</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
@@ -16465,37 +16465,37 @@
         <v>0</v>
       </c>
       <c r="Q136" t="n">
-        <v>2000</v>
+        <v>171813039</v>
       </c>
       <c r="R136" t="n">
-        <v>0</v>
+        <v>5735947</v>
       </c>
       <c r="S136" t="n">
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>2000</v>
+        <v>166077092</v>
       </c>
       <c r="U136" t="n">
-        <v>0</v>
+        <v>116600290.17</v>
       </c>
       <c r="V136" t="n">
-        <v>0</v>
+        <v>13136811.53</v>
       </c>
       <c r="W136" t="n">
-        <v>0</v>
+        <v>103463478.64</v>
       </c>
       <c r="X136" t="n">
-        <v>0</v>
+        <v>89661335.55</v>
       </c>
       <c r="Y136" t="n">
-        <v>0</v>
+        <v>1319332.44</v>
       </c>
       <c r="Z136" t="n">
-        <v>0</v>
+        <v>88342003.11</v>
       </c>
       <c r="AA136" t="n">
-        <v>0</v>
+        <v>438463.7</v>
       </c>
       <c r="AB136" t="n">
         <v>0</v>
@@ -16509,7 +16509,7 @@
       <c r="AE136" t="inlineStr"/>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -16550,12 +16550,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>1268</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>PMSP-SMDHC-Fundo Munic. de Abastecimento Alimentar de São Paulo-FAASP</t>
+          <t>PMSP-SMDU/CIDADE SOLIDÁRIA</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -16574,7 +16574,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>11298</v>
+        <v>2000</v>
       </c>
       <c r="O137" t="n">
         <v>0</v>
@@ -16583,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="Q137" t="n">
-        <v>11298</v>
+        <v>2000</v>
       </c>
       <c r="R137" t="n">
         <v>0</v>
@@ -16592,7 +16592,7 @@
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>11298</v>
+        <v>2000</v>
       </c>
       <c r="U137" t="n">
         <v>0</v>
@@ -16627,7 +16627,7 @@
       <c r="AE137" t="inlineStr"/>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -16663,17 +16663,17 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>33903200</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>1416</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>PMSP-SMDHC-Fundo Munic. de Abastecimento Alimentar de São Paulo-FAASP</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -16688,11 +16688,11 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Cestas Básicas</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>141616875</v>
+        <v>11298</v>
       </c>
       <c r="O138" t="n">
         <v>0</v>
@@ -16701,34 +16701,34 @@
         <v>0</v>
       </c>
       <c r="Q138" t="n">
-        <v>141616875</v>
+        <v>11298</v>
       </c>
       <c r="R138" t="n">
-        <v>4727853</v>
+        <v>0</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>136889022</v>
+        <v>11298</v>
       </c>
       <c r="U138" t="n">
-        <v>52634438.4</v>
+        <v>0</v>
       </c>
       <c r="V138" t="n">
-        <v>26317219.2</v>
+        <v>0</v>
       </c>
       <c r="W138" t="n">
-        <v>26317219.2</v>
+        <v>0</v>
       </c>
       <c r="X138" t="n">
-        <v>26317219.2</v>
+        <v>0</v>
       </c>
       <c r="Y138" t="n">
         <v>0</v>
       </c>
       <c r="Z138" t="n">
-        <v>26317219.2</v>
+        <v>0</v>
       </c>
       <c r="AA138" t="n">
         <v>0</v>
@@ -16745,7 +16745,7 @@
       <c r="AE138" t="inlineStr"/>
       <c r="AF138" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -16781,7 +16781,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903200</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -16806,11 +16806,11 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Cestas Básicas</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>83642123</v>
+        <v>141616875</v>
       </c>
       <c r="O139" t="n">
         <v>0</v>
@@ -16819,34 +16819,34 @@
         <v>0</v>
       </c>
       <c r="Q139" t="n">
-        <v>83642123</v>
+        <v>141616875</v>
       </c>
       <c r="R139" t="n">
-        <v>2792377</v>
+        <v>4727853</v>
       </c>
       <c r="S139" t="n">
         <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>80849746</v>
+        <v>136889022</v>
       </c>
       <c r="U139" t="n">
-        <v>29880000</v>
+        <v>52634438.4</v>
       </c>
       <c r="V139" t="n">
-        <v>180000</v>
+        <v>26317219.2</v>
       </c>
       <c r="W139" t="n">
-        <v>29700000</v>
+        <v>26317219.2</v>
       </c>
       <c r="X139" t="n">
-        <v>29700000</v>
+        <v>26317219.2</v>
       </c>
       <c r="Y139" t="n">
         <v>0</v>
       </c>
       <c r="Z139" t="n">
-        <v>29700000</v>
+        <v>26317219.2</v>
       </c>
       <c r="AA139" t="n">
         <v>0</v>
@@ -16863,7 +16863,7 @@
       <c r="AE139" t="inlineStr"/>
       <c r="AF139" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -16904,12 +16904,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Repasse nº 970993/2025-Banco de Alimentos</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -16928,7 +16928,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>2000</v>
+        <v>83642123</v>
       </c>
       <c r="O140" t="n">
         <v>0</v>
@@ -16937,34 +16937,34 @@
         <v>0</v>
       </c>
       <c r="Q140" t="n">
-        <v>2000</v>
+        <v>83642123</v>
       </c>
       <c r="R140" t="n">
-        <v>0</v>
+        <v>2792377</v>
       </c>
       <c r="S140" t="n">
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>2000</v>
+        <v>80849746</v>
       </c>
       <c r="U140" t="n">
-        <v>0</v>
+        <v>31750960.63</v>
       </c>
       <c r="V140" t="n">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="W140" t="n">
-        <v>0</v>
+        <v>31570960.63</v>
       </c>
       <c r="X140" t="n">
-        <v>0</v>
+        <v>31570960.63</v>
       </c>
       <c r="Y140" t="n">
         <v>0</v>
       </c>
       <c r="Z140" t="n">
-        <v>0</v>
+        <v>31570960.63</v>
       </c>
       <c r="AA140" t="n">
         <v>0</v>
@@ -16981,19 +16981,19 @@
       <c r="AE140" t="inlineStr"/>
       <c r="AF140" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>FUMCAD</t>
+          <t>FAASP</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -17007,46 +17007,46 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>122</v>
+        <v>422</v>
       </c>
       <c r="F141" t="n">
-        <v>4004</v>
+        <v>4010</v>
       </c>
       <c r="G141" t="n">
-        <v>2803</v>
+        <v>4426</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>33903000</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Sem detalhamento</t>
+          <t>Repasse nº 970993/2025-Banco de Alimentos</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Conselho</t>
+          <t>SESANA</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Conselho</t>
+          <t>Segurança Alimentar</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Material de Consumo</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O141" t="n">
         <v>0</v>
@@ -17055,7 +17055,7 @@
         <v>0</v>
       </c>
       <c r="Q141" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="R141" t="n">
         <v>0</v>
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="U141" t="n">
         <v>0</v>
@@ -17099,7 +17099,7 @@
       <c r="AE141" t="inlineStr"/>
       <c r="AF141" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>33903900</t>
+          <t>33903000</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -17160,11 +17160,11 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Contratação PJ com Fins Lucrativos</t>
+          <t>Material de Consumo</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>6245</v>
+        <v>3000</v>
       </c>
       <c r="O142" t="n">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>6245</v>
+        <v>3000</v>
       </c>
       <c r="R142" t="n">
         <v>0</v>
@@ -17182,7 +17182,7 @@
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>6245</v>
+        <v>3000</v>
       </c>
       <c r="U142" t="n">
         <v>0</v>
@@ -17217,7 +17217,7 @@
       <c r="AE142" t="inlineStr"/>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -17243,17 +17243,17 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F143" t="n">
-        <v>4002</v>
+        <v>4004</v>
       </c>
       <c r="G143" t="n">
-        <v>1220</v>
+        <v>2803</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>44904000</t>
+          <t>33903900</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -17268,21 +17268,21 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Conselho</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Conselho</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Serv. de Tec. da Inf. e Com - PJ</t>
+          <t>Contratação PJ com Fins Lucrativos</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>1000</v>
+        <v>6245</v>
       </c>
       <c r="O143" t="n">
         <v>0</v>
@@ -17291,7 +17291,7 @@
         <v>0</v>
       </c>
       <c r="Q143" t="n">
-        <v>1000</v>
+        <v>6245</v>
       </c>
       <c r="R143" t="n">
         <v>0</v>
@@ -17300,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>1000</v>
+        <v>6245</v>
       </c>
       <c r="U143" t="n">
         <v>0</v>
@@ -17335,7 +17335,7 @@
       <c r="AE143" t="inlineStr"/>
       <c r="AF143" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -17361,46 +17361,46 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>422</v>
+        <v>126</v>
       </c>
       <c r="F144" t="n">
-        <v>4019</v>
+        <v>4002</v>
       </c>
       <c r="G144" t="n">
-        <v>6160</v>
+        <v>1220</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>33503900</t>
+          <t>44904000</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Recursos do FUMCAD desvinculados</t>
+          <t>Sem detalhamento</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>FUMCAD</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Criança e Adolescente</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Contratação PJ sem Fins Lucrativos</t>
+          <t>Serv. de Tec. da Inf. e Com - PJ</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O144" t="n">
         <v>0</v>
@@ -17409,7 +17409,7 @@
         <v>0</v>
       </c>
       <c r="Q144" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R144" t="n">
         <v>0</v>
@@ -17418,7 +17418,7 @@
         <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U144" t="n">
         <v>0</v>
@@ -17453,7 +17453,7 @@
       <c r="AE144" t="inlineStr"/>
       <c r="AF144" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>
@@ -17494,12 +17494,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>0958</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>PMSP-SMDHC/FUMCAD</t>
+          <t>Recursos do FUMCAD desvinculados</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -17518,7 +17518,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>61292510</v>
+        <v>0</v>
       </c>
       <c r="O145" t="n">
         <v>0</v>
@@ -17527,7 +17527,7 @@
         <v>0</v>
       </c>
       <c r="Q145" t="n">
-        <v>61292510</v>
+        <v>0</v>
       </c>
       <c r="R145" t="n">
         <v>0</v>
@@ -17536,28 +17536,28 @@
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>61292510</v>
+        <v>0</v>
       </c>
       <c r="U145" t="n">
-        <v>33746213.22</v>
+        <v>0</v>
       </c>
       <c r="V145" t="n">
-        <v>3068431.98</v>
+        <v>0</v>
       </c>
       <c r="W145" t="n">
-        <v>30677781.24</v>
+        <v>0</v>
       </c>
       <c r="X145" t="n">
-        <v>32027571.45</v>
+        <v>0</v>
       </c>
       <c r="Y145" t="n">
-        <v>1612764.1</v>
+        <v>0</v>
       </c>
       <c r="Z145" t="n">
-        <v>30414807.35</v>
+        <v>0</v>
       </c>
       <c r="AA145" t="n">
-        <v>127680</v>
+        <v>0</v>
       </c>
       <c r="AB145" t="n">
         <v>0</v>
@@ -17571,7 +17571,125 @@
       <c r="AE145" t="inlineStr"/>
       <c r="AF145" t="inlineStr">
         <is>
-          <t>28/01/2026 21:50:58</t>
+          <t>29/01/2026 11:36:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>FUMCAD</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>422</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4019</v>
+      </c>
+      <c r="G146" t="n">
+        <v>6160</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>33503900</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>0958</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>PMSP-SMDHC/FUMCAD</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>FUMCAD</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Criança e Adolescente</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Contratação PJ sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>61292510</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>61292510</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
+      <c r="S146" t="n">
+        <v>0</v>
+      </c>
+      <c r="T146" t="n">
+        <v>61292510</v>
+      </c>
+      <c r="U146" t="n">
+        <v>35187195.47</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3068431.98</v>
+      </c>
+      <c r="W146" t="n">
+        <v>32118763.49</v>
+      </c>
+      <c r="X146" t="n">
+        <v>33468553.7</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1612764.1</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>31855789.6</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>964928.4399999999</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE146" t="inlineStr"/>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>29/01/2026 11:36:08</t>
         </is>
       </c>
     </row>

--- a/base_despesas/2026/despesas_202601.xlsx
+++ b/base_despesas/2026/despesas_202601.xlsx
@@ -697,7 +697,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -7187,7 +7187,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -8957,7 +8957,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -9665,7 +9665,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -9783,7 +9783,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="AF95" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="AF96" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="AF98" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="AF99" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="AF100" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -12379,7 +12379,7 @@
       </c>
       <c r="AF101" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="AF103" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -12733,7 +12733,7 @@
       </c>
       <c r="AF104" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="AF105" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="AF106" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -13087,7 +13087,7 @@
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="AF108" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -13323,7 +13323,7 @@
       </c>
       <c r="AF109" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="AF110" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="AF111" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -13677,7 +13677,7 @@
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="AF113" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="AF114" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="AF115" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="AF116" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="AF118" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -14503,7 +14503,7 @@
       </c>
       <c r="AF119" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="AF120" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="AF121" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -14975,7 +14975,7 @@
       </c>
       <c r="AF123" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="AF124" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -15211,7 +15211,7 @@
       </c>
       <c r="AF125" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -15329,7 +15329,7 @@
       </c>
       <c r="AF126" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="AF128" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -15683,7 +15683,7 @@
       </c>
       <c r="AF129" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -15801,7 +15801,7 @@
       </c>
       <c r="AF130" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="AF131" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="AF133" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -16273,7 +16273,7 @@
       </c>
       <c r="AF134" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -16391,7 +16391,7 @@
       </c>
       <c r="AF135" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -16509,7 +16509,7 @@
       </c>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -16627,7 +16627,7 @@
       </c>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -16745,7 +16745,7 @@
       </c>
       <c r="AF138" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="AF139" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="AF140" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -17099,7 +17099,7 @@
       </c>
       <c r="AF141" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -17335,7 +17335,7 @@
       </c>
       <c r="AF143" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -17453,7 +17453,7 @@
       </c>
       <c r="AF144" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -17571,7 +17571,7 @@
       </c>
       <c r="AF145" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="AF146" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -17925,7 +17925,7 @@
       </c>
       <c r="AF148" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>
@@ -18043,7 +18043,7 @@
       </c>
       <c r="AF149" t="inlineStr">
         <is>
-          <t>30/01/2026 14:11:29</t>
+          <t>30/01/2026 17:47:34</t>
         </is>
       </c>
     </row>

--- a/base_despesas/2026/despesas_202601.xlsx
+++ b/base_despesas/2026/despesas_202601.xlsx
@@ -697,7 +697,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4509695.21</v>
+        <v>4784344.21</v>
       </c>
       <c r="R3" t="n">
         <v>4509695.21</v>
@@ -774,7 +774,7 @@
         <v>4509695.21</v>
       </c>
       <c r="T3" t="n">
-        <v>4509695.21</v>
+        <v>4784344.21</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2878192.65</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2878192.65</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1001,16 +1001,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2878192.65</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2878192.65</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2878192.65</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2878192.65</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -1240,10 +1240,10 @@
         <v>8263.299999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>5651</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>5651</v>
       </c>
       <c r="T7" t="n">
         <v>8263.299999999999</v>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>537521.79</v>
+        <v>542988.46</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3785993.38</v>
+        <v>3877150.67</v>
       </c>
       <c r="R10" t="n">
-        <v>4100</v>
+        <v>60910.48</v>
       </c>
       <c r="S10" t="n">
-        <v>4100</v>
+        <v>60910.48</v>
       </c>
       <c r="T10" t="n">
-        <v>3248471.59</v>
+        <v>3334162.21</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>469185.6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>469185.6</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1827,16 +1827,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>469185.6</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>469185.6</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>469185.6</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>469185.6</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>178219.94</v>
+        <v>193219.94</v>
       </c>
       <c r="R13" t="n">
         <v>178219.94</v>
@@ -1954,7 +1954,7 @@
         <v>178219.94</v>
       </c>
       <c r="T13" t="n">
-        <v>178219.94</v>
+        <v>193219.94</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>19795.55</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>19795.55</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2063,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>19795.55</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>19795.55</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>19795.55</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>19795.55</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1326292.86</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1326292.86</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1326292.86</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1326292.86</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1326292.86</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1326292.86</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>199219.43</v>
+        <v>201875.44</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1595868.42</v>
+        <v>1636174.68</v>
       </c>
       <c r="R28" t="n">
-        <v>787439.5600000001</v>
+        <v>1249677.9</v>
       </c>
       <c r="S28" t="n">
-        <v>848666.63</v>
+        <v>1310904.97</v>
       </c>
       <c r="T28" t="n">
-        <v>1396648.99</v>
+        <v>1434299.24</v>
       </c>
       <c r="U28" t="n">
         <v>61227.07</v>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1100411.14</v>
+        <v>1152411.14</v>
       </c>
       <c r="R30" t="n">
-        <v>246781.74</v>
+        <v>998372.9</v>
       </c>
       <c r="S30" t="n">
-        <v>253354.39</v>
+        <v>1004945.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1097600.16</v>
+        <v>1149600.16</v>
       </c>
       <c r="U30" t="n">
         <v>6572.65</v>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>379194.76</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>379194.76</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -4305,16 +4305,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>379194.76</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>379194.76</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>379194.76</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>379194.76</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -4417,22 +4417,22 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2931914.44</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>53127.56</v>
+        <v>5916961.44</v>
       </c>
       <c r="R34" t="n">
-        <v>36597.26</v>
+        <v>49943.26</v>
       </c>
       <c r="S34" t="n">
-        <v>36597.26</v>
+        <v>49943.26</v>
       </c>
       <c r="T34" t="n">
-        <v>53127.56</v>
+        <v>2985047</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -5833,22 +5833,22 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>4140329.7</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5342064.92</v>
+        <v>13165012.7</v>
       </c>
       <c r="R46" t="n">
-        <v>1201735.22</v>
+        <v>9024683</v>
       </c>
       <c r="S46" t="n">
-        <v>3606658.21</v>
+        <v>11429605.99</v>
       </c>
       <c r="T46" t="n">
-        <v>5342064.92</v>
+        <v>9024683</v>
       </c>
       <c r="U46" t="n">
         <v>2404922.99</v>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -7187,7 +7187,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -8957,7 +8957,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -9665,7 +9665,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -9783,7 +9783,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -10562,10 +10562,10 @@
         <v>2861229.41</v>
       </c>
       <c r="R86" t="n">
-        <v>2459898.9</v>
+        <v>2861229.41</v>
       </c>
       <c r="S86" t="n">
-        <v>2459898.9</v>
+        <v>2861229.41</v>
       </c>
       <c r="T86" t="n">
         <v>2861229.41</v>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>4551281.7</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -11158,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>4551281.7</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="AF95" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="AF96" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="AF98" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="AF99" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="AF100" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -12379,7 +12379,7 @@
       </c>
       <c r="AF101" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="AF103" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -12733,7 +12733,7 @@
       </c>
       <c r="AF104" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -12795,25 +12795,25 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>45670</v>
+        <v>46120</v>
       </c>
       <c r="R105" t="n">
-        <v>45670</v>
+        <v>43870</v>
       </c>
       <c r="S105" t="n">
         <v>45670</v>
       </c>
       <c r="T105" t="n">
-        <v>45670</v>
+        <v>44320</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="V105" t="n">
         <v>45670</v>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="AF105" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="AF106" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -13087,7 +13087,7 @@
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="AF108" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -13323,7 +13323,7 @@
       </c>
       <c r="AF109" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="AF110" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="AF111" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -13677,7 +13677,7 @@
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="AF113" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="AF114" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="AF115" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -14102,16 +14102,16 @@
         <v>106229.82</v>
       </c>
       <c r="R116" t="n">
-        <v>784</v>
+        <v>16178</v>
       </c>
       <c r="S116" t="n">
-        <v>784</v>
+        <v>17972</v>
       </c>
       <c r="T116" t="n">
         <v>106229.82</v>
       </c>
       <c r="U116" t="n">
-        <v>0</v>
+        <v>1794</v>
       </c>
       <c r="V116" t="n">
         <v>200000</v>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="AF116" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -14335,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="Q118" t="n">
-        <v>0</v>
+        <v>306807.5</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
@@ -14344,7 +14344,7 @@
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>306807.5</v>
       </c>
       <c r="U118" t="n">
         <v>0</v>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="AF118" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -14503,7 +14503,7 @@
       </c>
       <c r="AF119" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="AF120" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="AF121" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -14975,7 +14975,7 @@
       </c>
       <c r="AF123" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="AF124" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -15211,7 +15211,7 @@
       </c>
       <c r="AF125" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -15329,7 +15329,7 @@
       </c>
       <c r="AF126" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="AF128" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -15683,7 +15683,7 @@
       </c>
       <c r="AF129" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -15751,7 +15751,7 @@
         <v>0</v>
       </c>
       <c r="Q130" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="R130" t="n">
         <v>0</v>
@@ -15760,7 +15760,7 @@
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="U130" t="n">
         <v>0</v>
@@ -15801,7 +15801,7 @@
       </c>
       <c r="AF130" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="AF131" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="AF133" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -16273,7 +16273,7 @@
       </c>
       <c r="AF134" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -16391,7 +16391,7 @@
       </c>
       <c r="AF135" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -16509,7 +16509,7 @@
       </c>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -16627,7 +16627,7 @@
       </c>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -16745,7 +16745,7 @@
       </c>
       <c r="AF138" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -16807,25 +16807,25 @@
         <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>13136811.53</v>
+        <v>16556247.06</v>
       </c>
       <c r="P139" t="n">
         <v>0</v>
       </c>
       <c r="Q139" t="n">
-        <v>116600290.17</v>
+        <v>133336049.87</v>
       </c>
       <c r="R139" t="n">
-        <v>88342003.11</v>
+        <v>103758007.13</v>
       </c>
       <c r="S139" t="n">
-        <v>89661335.55</v>
+        <v>106566937.33</v>
       </c>
       <c r="T139" t="n">
-        <v>103463478.64</v>
+        <v>116779802.81</v>
       </c>
       <c r="U139" t="n">
-        <v>1319332.44</v>
+        <v>2808930.2</v>
       </c>
       <c r="V139" t="n">
         <v>166077092</v>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="AF139" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="AF140" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -17099,7 +17099,7 @@
       </c>
       <c r="AF141" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -17149,7 +17149,7 @@
         </is>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>5410565.4</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -17335,7 +17335,7 @@
       </c>
       <c r="AF143" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -17453,7 +17453,7 @@
       </c>
       <c r="AF144" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -17571,7 +17571,7 @@
       </c>
       <c r="AF145" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="AF146" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -17925,7 +17925,7 @@
       </c>
       <c r="AF148" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
@@ -17975,7 +17975,7 @@
         </is>
       </c>
       <c r="K149" t="n">
-        <v>964928.4399999999</v>
+        <v>1433738.57</v>
       </c>
       <c r="L149" t="n">
         <v>0</v>
@@ -18043,7 +18043,7 @@
       </c>
       <c r="AF149" t="inlineStr">
         <is>
-          <t>30/01/2026 17:47:34</t>
+          <t>31/01/2026 08:28:52</t>
         </is>
       </c>
     </row>
